--- a/raw_data/20200818_saline/20200818_Sensor3_Test_17.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_17.xlsx
@@ -1,750 +1,1166 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D40595-24A6-4680-AB38-443506EA2D33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>14959.487742</v>
+        <v>14959.487741999999</v>
       </c>
       <c r="B2" s="1">
-        <v>4.155413</v>
+        <v>4.1554130000000002</v>
       </c>
       <c r="C2" s="1">
-        <v>1142.630000</v>
+        <v>1142.6300000000001</v>
       </c>
       <c r="D2" s="1">
-        <v>-259.978000</v>
+        <v>-259.97800000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>14969.859120</v>
+        <v>14969.859119999999</v>
       </c>
       <c r="G2" s="1">
-        <v>4.158294</v>
+        <v>4.1582939999999997</v>
       </c>
       <c r="H2" s="1">
-        <v>1163.720000</v>
+        <v>1163.72</v>
       </c>
       <c r="I2" s="1">
-        <v>-217.750000</v>
+        <v>-217.75</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>14980.334595</v>
       </c>
       <c r="L2" s="1">
-        <v>4.161204</v>
+        <v>4.1612039999999997</v>
       </c>
       <c r="M2" s="1">
-        <v>1190.630000</v>
+        <v>1190.6300000000001</v>
       </c>
       <c r="N2" s="1">
-        <v>-150.667000</v>
+        <v>-150.667</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>14990.875604</v>
+        <v>14990.875604000001</v>
       </c>
       <c r="Q2" s="1">
-        <v>4.164132</v>
+        <v>4.1641320000000004</v>
       </c>
       <c r="R2" s="1">
-        <v>1198.490000</v>
+        <v>1198.49</v>
       </c>
       <c r="S2" s="1">
-        <v>-128.237000</v>
+        <v>-128.23699999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>15001.449783</v>
       </c>
       <c r="V2" s="1">
-        <v>4.167069</v>
+        <v>4.1670689999999997</v>
       </c>
       <c r="W2" s="1">
-        <v>1205.580000</v>
+        <v>1205.58</v>
       </c>
       <c r="X2" s="1">
-        <v>-107.195000</v>
+        <v>-107.19499999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>15012.214953</v>
+        <v>15012.214953000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>4.170060</v>
+        <v>4.1700600000000003</v>
       </c>
       <c r="AB2" s="1">
-        <v>1212.600000</v>
+        <v>1212.5999999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-90.138700</v>
+        <v>-90.1387</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>15022.781723</v>
       </c>
       <c r="AF2" s="1">
-        <v>4.172995</v>
+        <v>4.1729950000000002</v>
       </c>
       <c r="AG2" s="1">
-        <v>1217.090000</v>
+        <v>1217.0899999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.661500</v>
+        <v>-85.661500000000004</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>15032.846045</v>
       </c>
       <c r="AK2" s="1">
-        <v>4.175791</v>
+        <v>4.1757910000000003</v>
       </c>
       <c r="AL2" s="1">
-        <v>1223.970000</v>
+        <v>1223.97</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.943900</v>
+        <v>-88.943899999999999</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>15043.390000</v>
+        <v>15043.39</v>
       </c>
       <c r="AP2" s="1">
-        <v>4.178719</v>
+        <v>4.1787190000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1231.810000</v>
+        <v>1231.81</v>
       </c>
       <c r="AR2" s="1">
-        <v>-100.871000</v>
+        <v>-100.871</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>15054.414577</v>
       </c>
       <c r="AU2" s="1">
-        <v>4.181782</v>
+        <v>4.1817820000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1241.630000</v>
+        <v>1241.6300000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-120.174000</v>
+        <v>-120.17400000000001</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
         <v>15066.289794</v>
       </c>
       <c r="AZ2" s="1">
-        <v>4.185080</v>
+        <v>4.1850800000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1249.980000</v>
+        <v>1249.98</v>
       </c>
       <c r="BB2" s="1">
-        <v>-137.605000</v>
+        <v>-137.60499999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>15076.930963</v>
+        <v>15076.930963000001</v>
       </c>
       <c r="BE2" s="1">
-        <v>4.188036</v>
+        <v>4.1880360000000003</v>
       </c>
       <c r="BF2" s="1">
-        <v>1289.730000</v>
+        <v>1289.73</v>
       </c>
       <c r="BG2" s="1">
-        <v>-219.400000</v>
+        <v>-219.4</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>15087.644053</v>
       </c>
       <c r="BJ2" s="1">
-        <v>4.191012</v>
+        <v>4.1910119999999997</v>
       </c>
       <c r="BK2" s="1">
-        <v>1358.580000</v>
+        <v>1358.58</v>
       </c>
       <c r="BL2" s="1">
-        <v>-355.751000</v>
+        <v>-355.75099999999998</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>15098.688966</v>
       </c>
       <c r="BO2" s="1">
-        <v>4.194080</v>
+        <v>4.1940799999999996</v>
       </c>
       <c r="BP2" s="1">
-        <v>1471.700000</v>
+        <v>1471.7</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-578.450000</v>
+        <v>-578.45000000000005</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>15109.441274</v>
+        <v>15109.441274000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>4.197067</v>
+        <v>4.1970669999999997</v>
       </c>
       <c r="BU2" s="1">
-        <v>1601.900000</v>
+        <v>1601.9</v>
       </c>
       <c r="BV2" s="1">
-        <v>-830.806000</v>
+        <v>-830.80600000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>15120.149370</v>
+        <v>15120.149369999999</v>
       </c>
       <c r="BY2" s="1">
-        <v>4.200041</v>
+        <v>4.2000409999999997</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1753.480000</v>
+        <v>1753.48</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1105.570000</v>
+        <v>-1105.57</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
         <v>15131.805355</v>
       </c>
       <c r="CD2" s="1">
-        <v>4.203279</v>
+        <v>4.2032790000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>2171.760000</v>
+        <v>2171.7600000000002</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1772.840000</v>
+        <v>-1772.84</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>14959.843902</v>
+        <v>14959.843902000001</v>
       </c>
       <c r="B3" s="1">
-        <v>4.155512</v>
+        <v>4.1555119999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1142.390000</v>
+        <v>1142.3900000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-259.698000</v>
+        <v>-259.69799999999998</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>14970.233569</v>
@@ -753,43 +1169,43 @@
         <v>4.158398</v>
       </c>
       <c r="H3" s="1">
-        <v>1164.140000</v>
+        <v>1164.1400000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-217.530000</v>
+        <v>-217.53</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>14980.711554</v>
       </c>
       <c r="L3" s="1">
-        <v>4.161309</v>
+        <v>4.1613090000000001</v>
       </c>
       <c r="M3" s="1">
-        <v>1191.140000</v>
+        <v>1191.1400000000001</v>
       </c>
       <c r="N3" s="1">
-        <v>-150.628000</v>
+        <v>-150.62799999999999</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>14991.590835</v>
+        <v>14991.590835000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>4.164331</v>
+        <v>4.1643309999999998</v>
       </c>
       <c r="R3" s="1">
-        <v>1198.520000</v>
+        <v>1198.52</v>
       </c>
       <c r="S3" s="1">
-        <v>-128.262000</v>
+        <v>-128.262</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>15002.164074</v>
@@ -798,405 +1214,405 @@
         <v>4.167268</v>
       </c>
       <c r="W3" s="1">
-        <v>1205.550000</v>
+        <v>1205.55</v>
       </c>
       <c r="X3" s="1">
-        <v>-107.220000</v>
+        <v>-107.22</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>15012.600346</v>
+        <v>15012.600345999999</v>
       </c>
       <c r="AA3" s="1">
-        <v>4.170167</v>
+        <v>4.1701670000000002</v>
       </c>
       <c r="AB3" s="1">
-        <v>1212.330000</v>
+        <v>1212.33</v>
       </c>
       <c r="AC3" s="1">
-        <v>-90.040800</v>
+        <v>-90.040800000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>15023.110571</v>
+        <v>15023.110570999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>4.173086</v>
+        <v>4.1730859999999996</v>
       </c>
       <c r="AG3" s="1">
-        <v>1217.020000</v>
+        <v>1217.02</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.594000</v>
+        <v>-85.593999999999994</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>15033.195758</v>
       </c>
       <c r="AK3" s="1">
-        <v>4.175888</v>
+        <v>4.1758879999999996</v>
       </c>
       <c r="AL3" s="1">
-        <v>1223.940000</v>
+        <v>1223.94</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.942400</v>
+        <v>-88.942400000000006</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>15044.082912</v>
       </c>
       <c r="AP3" s="1">
-        <v>4.178912</v>
+        <v>4.1789120000000004</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1231.780000</v>
+        <v>1231.78</v>
       </c>
       <c r="AR3" s="1">
-        <v>-100.870000</v>
+        <v>-100.87</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>15055.100544</v>
+        <v>15055.100544000001</v>
       </c>
       <c r="AU3" s="1">
         <v>4.181972</v>
       </c>
       <c r="AV3" s="1">
-        <v>1241.650000</v>
+        <v>1241.6500000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-120.184000</v>
+        <v>-120.184</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
         <v>15066.696512</v>
       </c>
       <c r="AZ3" s="1">
-        <v>4.185193</v>
+        <v>4.1851929999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1249.980000</v>
+        <v>1249.98</v>
       </c>
       <c r="BB3" s="1">
-        <v>-137.590000</v>
+        <v>-137.59</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>15077.293540</v>
+        <v>15077.293540000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>4.188137</v>
+        <v>4.1881370000000002</v>
       </c>
       <c r="BF3" s="1">
-        <v>1289.700000</v>
+        <v>1289.7</v>
       </c>
       <c r="BG3" s="1">
-        <v>-219.377000</v>
+        <v>-219.37700000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>15088.022502</v>
       </c>
       <c r="BJ3" s="1">
-        <v>4.191117</v>
+        <v>4.1911170000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1358.600000</v>
+        <v>1358.6</v>
       </c>
       <c r="BL3" s="1">
-        <v>-355.796000</v>
+        <v>-355.79599999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>15099.113046</v>
       </c>
       <c r="BO3" s="1">
-        <v>4.194198</v>
+        <v>4.1941980000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1471.610000</v>
+        <v>1471.61</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-578.433000</v>
+        <v>-578.43299999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>15109.881688</v>
+        <v>15109.881687999999</v>
       </c>
       <c r="BT3" s="1">
-        <v>4.197189</v>
+        <v>4.1971889999999998</v>
       </c>
       <c r="BU3" s="1">
-        <v>1601.830000</v>
+        <v>1601.83</v>
       </c>
       <c r="BV3" s="1">
-        <v>-830.823000</v>
+        <v>-830.82299999999998</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
         <v>15120.613626</v>
       </c>
       <c r="BY3" s="1">
-        <v>4.200170</v>
+        <v>4.20017</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1753.530000</v>
+        <v>1753.53</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1105.620000</v>
+        <v>-1105.6199999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>15132.081130</v>
+        <v>15132.08113</v>
       </c>
       <c r="CD3" s="1">
-        <v>4.203356</v>
+        <v>4.2033560000000003</v>
       </c>
       <c r="CE3" s="1">
-        <v>2169.710000</v>
+        <v>2169.71</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1774.240000</v>
+        <v>-1774.24</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>14960.185119</v>
       </c>
       <c r="B4" s="1">
-        <v>4.155607</v>
+        <v>4.1556069999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1142.570000</v>
+        <v>1142.57</v>
       </c>
       <c r="D4" s="1">
-        <v>-259.774000</v>
+        <v>-259.774</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>14970.571841</v>
+        <v>14970.571841000001</v>
       </c>
       <c r="G4" s="1">
-        <v>4.158492</v>
+        <v>4.1584919999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>1163.460000</v>
+        <v>1163.46</v>
       </c>
       <c r="I4" s="1">
-        <v>-217.486000</v>
+        <v>-217.48599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>14981.398513</v>
       </c>
       <c r="L4" s="1">
-        <v>4.161500</v>
+        <v>4.1615000000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>1190.880000</v>
+        <v>1190.8800000000001</v>
       </c>
       <c r="N4" s="1">
-        <v>-150.547000</v>
+        <v>-150.547</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>14991.939491</v>
+        <v>14991.939490999999</v>
       </c>
       <c r="Q4" s="1">
         <v>4.164428</v>
       </c>
       <c r="R4" s="1">
-        <v>1198.530000</v>
+        <v>1198.53</v>
       </c>
       <c r="S4" s="1">
-        <v>-128.297000</v>
+        <v>-128.297</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>15002.507766</v>
+        <v>15002.507766000001</v>
       </c>
       <c r="V4" s="1">
-        <v>4.167363</v>
+        <v>4.1673629999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>1205.450000</v>
+        <v>1205.45</v>
       </c>
       <c r="X4" s="1">
-        <v>-107.236000</v>
+        <v>-107.236</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>15012.945562</v>
+        <v>15012.945562000001</v>
       </c>
       <c r="AA4" s="1">
-        <v>4.170263</v>
+        <v>4.1702630000000003</v>
       </c>
       <c r="AB4" s="1">
-        <v>1212.690000</v>
+        <v>1212.69</v>
       </c>
       <c r="AC4" s="1">
-        <v>-90.128600</v>
+        <v>-90.128600000000006</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
         <v>15023.456284</v>
       </c>
       <c r="AF4" s="1">
-        <v>4.173182</v>
+        <v>4.1731819999999997</v>
       </c>
       <c r="AG4" s="1">
-        <v>1216.910000</v>
+        <v>1216.9100000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.509200</v>
+        <v>-85.509200000000007</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>15033.851965</v>
       </c>
       <c r="AK4" s="1">
-        <v>4.176070</v>
+        <v>4.1760700000000002</v>
       </c>
       <c r="AL4" s="1">
-        <v>1223.960000</v>
+        <v>1223.96</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.966800</v>
+        <v>-88.966800000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>15044.493102</v>
       </c>
       <c r="AP4" s="1">
-        <v>4.179026</v>
+        <v>4.1790260000000004</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1231.790000</v>
+        <v>1231.79</v>
       </c>
       <c r="AR4" s="1">
-        <v>-100.862000</v>
+        <v>-100.86199999999999</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>15055.527599</v>
+        <v>15055.527598999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>4.182091</v>
+        <v>4.1820909999999998</v>
       </c>
       <c r="AV4" s="1">
-        <v>1241.660000</v>
+        <v>1241.6600000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-120.159000</v>
+        <v>-120.15900000000001</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>15067.054128</v>
       </c>
       <c r="AZ4" s="1">
-        <v>4.185293</v>
+        <v>4.1852929999999997</v>
       </c>
       <c r="BA4" s="1">
-        <v>1249.960000</v>
+        <v>1249.96</v>
       </c>
       <c r="BB4" s="1">
-        <v>-137.586000</v>
+        <v>-137.58600000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>15077.657602</v>
+        <v>15077.657601999999</v>
       </c>
       <c r="BE4" s="1">
-        <v>4.188238</v>
+        <v>4.1882380000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1289.700000</v>
+        <v>1289.7</v>
       </c>
       <c r="BG4" s="1">
-        <v>-219.362000</v>
+        <v>-219.36199999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
         <v>15088.398964</v>
       </c>
       <c r="BJ4" s="1">
-        <v>4.191222</v>
+        <v>4.1912219999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1358.560000</v>
+        <v>1358.56</v>
       </c>
       <c r="BL4" s="1">
-        <v>-355.750000</v>
+        <v>-355.75</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>15099.534149</v>
+        <v>15099.534148999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>4.194315</v>
+        <v>4.1943149999999996</v>
       </c>
       <c r="BP4" s="1">
-        <v>1471.620000</v>
+        <v>1471.62</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-578.486000</v>
+        <v>-578.48599999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>15110.320647</v>
@@ -1205,377 +1621,377 @@
         <v>4.197311</v>
       </c>
       <c r="BU4" s="1">
-        <v>1601.890000</v>
+        <v>1601.89</v>
       </c>
       <c r="BV4" s="1">
-        <v>-830.825000</v>
+        <v>-830.82500000000005</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>15121.037706</v>
+        <v>15121.037705999999</v>
       </c>
       <c r="BY4" s="1">
-        <v>4.200288</v>
+        <v>4.2002879999999996</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1753.400000</v>
+        <v>1753.4</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1105.700000</v>
+        <v>-1105.7</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>15132.598459</v>
+        <v>15132.598459000001</v>
       </c>
       <c r="CD4" s="1">
-        <v>4.203500</v>
+        <v>4.2035</v>
       </c>
       <c r="CE4" s="1">
-        <v>2170.480000</v>
+        <v>2170.48</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1772.980000</v>
+        <v>-1772.98</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>14960.859180</v>
+        <v>14960.859179999999</v>
       </c>
       <c r="B5" s="1">
-        <v>4.155794</v>
+        <v>4.1557940000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>1142.290000</v>
+        <v>1142.29</v>
       </c>
       <c r="D5" s="1">
-        <v>-259.817000</v>
+        <v>-259.81700000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>14971.264752</v>
+        <v>14971.264751999999</v>
       </c>
       <c r="G5" s="1">
-        <v>4.158685</v>
+        <v>4.1586850000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>1163.000000</v>
+        <v>1163</v>
       </c>
       <c r="I5" s="1">
-        <v>-216.839000</v>
+        <v>-216.839</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>14981.748197</v>
+        <v>14981.748197000001</v>
       </c>
       <c r="L5" s="1">
-        <v>4.161597</v>
+        <v>4.1615970000000004</v>
       </c>
       <c r="M5" s="1">
-        <v>1191.010000</v>
+        <v>1191.01</v>
       </c>
       <c r="N5" s="1">
-        <v>-150.822000</v>
+        <v>-150.822</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>14992.288213</v>
       </c>
       <c r="Q5" s="1">
-        <v>4.164525</v>
+        <v>4.1645250000000003</v>
       </c>
       <c r="R5" s="1">
-        <v>1198.460000</v>
+        <v>1198.46</v>
       </c>
       <c r="S5" s="1">
-        <v>-128.335000</v>
+        <v>-128.33500000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>15002.851479</v>
+        <v>15002.851479000001</v>
       </c>
       <c r="V5" s="1">
         <v>4.167459</v>
       </c>
       <c r="W5" s="1">
-        <v>1205.430000</v>
+        <v>1205.43</v>
       </c>
       <c r="X5" s="1">
-        <v>-107.200000</v>
+        <v>-107.2</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>15013.600310</v>
+        <v>15013.60031</v>
       </c>
       <c r="AA5" s="1">
         <v>4.170445</v>
       </c>
       <c r="AB5" s="1">
-        <v>1212.550000</v>
+        <v>1212.55</v>
       </c>
       <c r="AC5" s="1">
-        <v>-90.141800</v>
+        <v>-90.141800000000003</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>15023.891770</v>
+        <v>15023.89177</v>
       </c>
       <c r="AF5" s="1">
-        <v>4.173303</v>
+        <v>4.1733029999999998</v>
       </c>
       <c r="AG5" s="1">
-        <v>1217.050000</v>
+        <v>1217.05</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.627000</v>
+        <v>-85.626999999999995</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>15034.243275</v>
+        <v>15034.243275000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>4.176179</v>
+        <v>4.1761790000000003</v>
       </c>
       <c r="AL5" s="1">
-        <v>1223.960000</v>
+        <v>1223.96</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.964100</v>
+        <v>-88.964100000000002</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>15044.875519</v>
+        <v>15044.875518999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>4.179132</v>
+        <v>4.1791320000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1231.770000</v>
+        <v>1231.77</v>
       </c>
       <c r="AR5" s="1">
-        <v>-100.878000</v>
+        <v>-100.878</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>15055.913983</v>
       </c>
       <c r="AU5" s="1">
-        <v>4.182198</v>
+        <v>4.1821979999999996</v>
       </c>
       <c r="AV5" s="1">
-        <v>1241.650000</v>
+        <v>1241.6500000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-120.146000</v>
+        <v>-120.146</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>15067.413265</v>
+        <v>15067.413264999999</v>
       </c>
       <c r="AZ5" s="1">
-        <v>4.185393</v>
+        <v>4.1853930000000004</v>
       </c>
       <c r="BA5" s="1">
-        <v>1249.980000</v>
+        <v>1249.98</v>
       </c>
       <c r="BB5" s="1">
-        <v>-137.596000</v>
+        <v>-137.596</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>15078.072258</v>
       </c>
       <c r="BE5" s="1">
-        <v>4.188353</v>
+        <v>4.1883530000000002</v>
       </c>
       <c r="BF5" s="1">
-        <v>1289.680000</v>
+        <v>1289.68</v>
       </c>
       <c r="BG5" s="1">
-        <v>-219.375000</v>
+        <v>-219.375</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>15088.836435</v>
+        <v>15088.836434999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>4.191343</v>
+        <v>4.1913429999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1358.560000</v>
+        <v>1358.56</v>
       </c>
       <c r="BL5" s="1">
-        <v>-355.771000</v>
+        <v>-355.77100000000002</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
         <v>15099.929984</v>
       </c>
       <c r="BO5" s="1">
-        <v>4.194425</v>
+        <v>4.1944249999999998</v>
       </c>
       <c r="BP5" s="1">
-        <v>1471.590000</v>
+        <v>1471.59</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-578.474000</v>
+        <v>-578.47400000000005</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>15110.747702</v>
+        <v>15110.747702000001</v>
       </c>
       <c r="BT5" s="1">
-        <v>4.197430</v>
+        <v>4.1974299999999998</v>
       </c>
       <c r="BU5" s="1">
-        <v>1601.820000</v>
+        <v>1601.82</v>
       </c>
       <c r="BV5" s="1">
-        <v>-830.803000</v>
+        <v>-830.803</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>15121.470724</v>
+        <v>15121.470724000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>4.200409</v>
+        <v>4.2004089999999996</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1753.310000</v>
+        <v>1753.31</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1105.410000</v>
+        <v>-1105.4100000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>15133.150009</v>
+        <v>15133.150009000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>4.203653</v>
+        <v>4.2036530000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>2171.580000</v>
+        <v>2171.58</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1772.950000</v>
+        <v>-1772.95</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>14961.211374</v>
       </c>
       <c r="B6" s="1">
-        <v>4.155892</v>
+        <v>4.1558919999999997</v>
       </c>
       <c r="C6" s="1">
-        <v>1142.440000</v>
+        <v>1142.44</v>
       </c>
       <c r="D6" s="1">
-        <v>-259.643000</v>
+        <v>-259.64299999999997</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>14971.608974</v>
+        <v>14971.608974000001</v>
       </c>
       <c r="G6" s="1">
-        <v>4.158780</v>
+        <v>4.1587800000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1164.500000</v>
+        <v>1164.5</v>
       </c>
       <c r="I6" s="1">
-        <v>-217.602000</v>
+        <v>-217.602</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>14982.092449</v>
       </c>
       <c r="L6" s="1">
-        <v>4.161692</v>
+        <v>4.1616920000000004</v>
       </c>
       <c r="M6" s="1">
-        <v>1191.040000</v>
+        <v>1191.04</v>
       </c>
       <c r="N6" s="1">
-        <v>-150.523000</v>
+        <v>-150.523</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>14992.943395</v>
       </c>
       <c r="Q6" s="1">
-        <v>4.164706</v>
+        <v>4.1647059999999998</v>
       </c>
       <c r="R6" s="1">
-        <v>1198.480000</v>
+        <v>1198.48</v>
       </c>
       <c r="S6" s="1">
-        <v>-128.264000</v>
+        <v>-128.26400000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>15003.506196</v>
       </c>
       <c r="V6" s="1">
-        <v>4.167641</v>
+        <v>4.1676409999999997</v>
       </c>
       <c r="W6" s="1">
-        <v>1205.360000</v>
+        <v>1205.3599999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-107.311000</v>
+        <v>-107.31100000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>15013.991623</v>
@@ -1584,482 +2000,482 @@
         <v>4.170553</v>
       </c>
       <c r="AB6" s="1">
-        <v>1212.500000</v>
+        <v>1212.5</v>
       </c>
       <c r="AC6" s="1">
-        <v>-90.042800</v>
+        <v>-90.0428</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
         <v>15024.147744</v>
       </c>
       <c r="AF6" s="1">
-        <v>4.173374</v>
+        <v>4.1733739999999999</v>
       </c>
       <c r="AG6" s="1">
-        <v>1217.200000</v>
+        <v>1217.2</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.564800</v>
+        <v>-85.564800000000005</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>15034.595435</v>
+        <v>15034.595434999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>4.176277</v>
+        <v>4.1762769999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>1223.940000</v>
+        <v>1223.94</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.974700</v>
+        <v>-88.974699999999999</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>15045.263919</v>
+        <v>15045.263919000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>4.179240</v>
+        <v>4.1792400000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1231.780000</v>
+        <v>1231.78</v>
       </c>
       <c r="AR6" s="1">
-        <v>-100.871000</v>
+        <v>-100.871</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>15056.279038</v>
+        <v>15056.279038000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>4.182300</v>
+        <v>4.1822999999999997</v>
       </c>
       <c r="AV6" s="1">
-        <v>1241.630000</v>
+        <v>1241.6300000000001</v>
       </c>
       <c r="AW6" s="1">
-        <v>-120.163000</v>
+        <v>-120.163</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>15067.833877</v>
+        <v>15067.833876999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>4.185509</v>
+        <v>4.1855089999999997</v>
       </c>
       <c r="BA6" s="1">
-        <v>1249.990000</v>
+        <v>1249.99</v>
       </c>
       <c r="BB6" s="1">
-        <v>-137.611000</v>
+        <v>-137.61099999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>15078.376801</v>
       </c>
       <c r="BE6" s="1">
-        <v>4.188438</v>
+        <v>4.1884379999999997</v>
       </c>
       <c r="BF6" s="1">
-        <v>1289.700000</v>
+        <v>1289.7</v>
       </c>
       <c r="BG6" s="1">
-        <v>-219.375000</v>
+        <v>-219.375</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>15089.175701</v>
       </c>
       <c r="BJ6" s="1">
-        <v>4.191438</v>
+        <v>4.1914379999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1358.580000</v>
+        <v>1358.58</v>
       </c>
       <c r="BL6" s="1">
-        <v>-355.789000</v>
+        <v>-355.78899999999999</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>15100.350068</v>
       </c>
       <c r="BO6" s="1">
-        <v>4.194542</v>
+        <v>4.1945420000000002</v>
       </c>
       <c r="BP6" s="1">
-        <v>1471.700000</v>
+        <v>1471.7</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-578.470000</v>
+        <v>-578.47</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
         <v>15111.161366</v>
       </c>
       <c r="BT6" s="1">
-        <v>4.197545</v>
+        <v>4.1975449999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>1601.890000</v>
+        <v>1601.89</v>
       </c>
       <c r="BV6" s="1">
-        <v>-830.871000</v>
+        <v>-830.87099999999998</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>15122.305479</v>
+        <v>15122.305479000001</v>
       </c>
       <c r="BY6" s="1">
-        <v>4.200640</v>
+        <v>4.2006399999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1753.360000</v>
+        <v>1753.36</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1105.580000</v>
+        <v>-1105.58</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>15133.680232</v>
+        <v>15133.680232000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>4.203800</v>
+        <v>4.2038000000000002</v>
       </c>
       <c r="CE6" s="1">
-        <v>2169.740000</v>
+        <v>2169.7399999999998</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1774.210000</v>
+        <v>-1774.21</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>14961.553083</v>
+        <v>14961.553083000001</v>
       </c>
       <c r="B7" s="1">
-        <v>4.155987</v>
+        <v>4.1559869999999997</v>
       </c>
       <c r="C7" s="1">
-        <v>1142.240000</v>
+        <v>1142.24</v>
       </c>
       <c r="D7" s="1">
-        <v>-259.770000</v>
+        <v>-259.77</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>14971.955678</v>
       </c>
       <c r="G7" s="1">
-        <v>4.158877</v>
+        <v>4.1588770000000004</v>
       </c>
       <c r="H7" s="1">
-        <v>1164.340000</v>
+        <v>1164.3399999999999</v>
       </c>
       <c r="I7" s="1">
-        <v>-217.656000</v>
+        <v>-217.65600000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>14982.757551</v>
+        <v>14982.757551000001</v>
       </c>
       <c r="L7" s="1">
-        <v>4.161877</v>
+        <v>4.1618769999999996</v>
       </c>
       <c r="M7" s="1">
-        <v>1190.930000</v>
+        <v>1190.93</v>
       </c>
       <c r="N7" s="1">
-        <v>-150.525000</v>
+        <v>-150.52500000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>14993.336226</v>
+        <v>14993.336225999999</v>
       </c>
       <c r="Q7" s="1">
-        <v>4.164816</v>
+        <v>4.1648160000000001</v>
       </c>
       <c r="R7" s="1">
-        <v>1198.520000</v>
+        <v>1198.52</v>
       </c>
       <c r="S7" s="1">
-        <v>-128.258000</v>
+        <v>-128.25800000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>15003.882659</v>
+        <v>15003.882659000001</v>
       </c>
       <c r="V7" s="1">
         <v>4.167745</v>
       </c>
       <c r="W7" s="1">
-        <v>1205.390000</v>
+        <v>1205.3900000000001</v>
       </c>
       <c r="X7" s="1">
-        <v>-107.214000</v>
+        <v>-107.214</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>15014.342790</v>
+        <v>15014.342790000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>4.170651</v>
+        <v>4.1706510000000003</v>
       </c>
       <c r="AB7" s="1">
-        <v>1212.580000</v>
+        <v>1212.58</v>
       </c>
       <c r="AC7" s="1">
-        <v>-90.061400</v>
+        <v>-90.061400000000006</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
         <v>15024.491966</v>
       </c>
       <c r="AF7" s="1">
-        <v>4.173470</v>
+        <v>4.17347</v>
       </c>
       <c r="AG7" s="1">
-        <v>1217.080000</v>
+        <v>1217.08</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.612500</v>
+        <v>-85.612499999999997</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>15034.940187</v>
       </c>
       <c r="AK7" s="1">
-        <v>4.176372</v>
+        <v>4.1763719999999998</v>
       </c>
       <c r="AL7" s="1">
-        <v>1223.980000</v>
+        <v>1223.98</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.957900</v>
+        <v>-88.957899999999995</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>15045.695404</v>
       </c>
       <c r="AP7" s="1">
-        <v>4.179360</v>
+        <v>4.17936</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1231.790000</v>
+        <v>1231.79</v>
       </c>
       <c r="AR7" s="1">
-        <v>-100.839000</v>
+        <v>-100.839</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>15057.007166</v>
+        <v>15057.007165999999</v>
       </c>
       <c r="AU7" s="1">
-        <v>4.182502</v>
+        <v>4.1825020000000004</v>
       </c>
       <c r="AV7" s="1">
-        <v>1241.640000</v>
+        <v>1241.6400000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-120.155000</v>
+        <v>-120.155</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>15068.132926</v>
       </c>
       <c r="AZ7" s="1">
-        <v>4.185592</v>
+        <v>4.1855919999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1250.000000</v>
+        <v>1250</v>
       </c>
       <c r="BB7" s="1">
-        <v>-137.617000</v>
+        <v>-137.61699999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>15078.738385</v>
+        <v>15078.738385000001</v>
       </c>
       <c r="BE7" s="1">
-        <v>4.188538</v>
+        <v>4.1885380000000003</v>
       </c>
       <c r="BF7" s="1">
-        <v>1289.700000</v>
+        <v>1289.7</v>
       </c>
       <c r="BG7" s="1">
-        <v>-219.387000</v>
+        <v>-219.387</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>15089.550179</v>
       </c>
       <c r="BJ7" s="1">
-        <v>4.191542</v>
+        <v>4.1915420000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1358.610000</v>
+        <v>1358.61</v>
       </c>
       <c r="BL7" s="1">
-        <v>-355.770000</v>
+        <v>-355.77</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>15100.748388</v>
       </c>
       <c r="BO7" s="1">
-        <v>4.194652</v>
+        <v>4.1946519999999996</v>
       </c>
       <c r="BP7" s="1">
-        <v>1471.610000</v>
+        <v>1471.61</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-578.461000</v>
+        <v>-578.46100000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>15111.591397</v>
       </c>
       <c r="BT7" s="1">
-        <v>4.197664</v>
+        <v>4.1976639999999996</v>
       </c>
       <c r="BU7" s="1">
-        <v>1601.840000</v>
+        <v>1601.84</v>
       </c>
       <c r="BV7" s="1">
-        <v>-830.740000</v>
+        <v>-830.74</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>15122.748406</v>
+        <v>15122.748406000001</v>
       </c>
       <c r="BY7" s="1">
-        <v>4.200763</v>
+        <v>4.2007630000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1753.460000</v>
+        <v>1753.46</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1105.730000</v>
+        <v>-1105.73</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>15134.195577</v>
       </c>
       <c r="CD7" s="1">
-        <v>4.203943</v>
+        <v>4.2039429999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>2170.980000</v>
+        <v>2170.98</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1775.850000</v>
+        <v>-1775.85</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
         <v>14962.201851</v>
       </c>
       <c r="B8" s="1">
-        <v>4.156167</v>
+        <v>4.1561669999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1142.380000</v>
+        <v>1142.3800000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-259.899000</v>
+        <v>-259.899</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>14972.605933</v>
+        <v>14972.605933000001</v>
       </c>
       <c r="G8" s="1">
-        <v>4.159057</v>
+        <v>4.1590569999999998</v>
       </c>
       <c r="H8" s="1">
-        <v>1164.230000</v>
+        <v>1164.23</v>
       </c>
       <c r="I8" s="1">
-        <v>-217.280000</v>
+        <v>-217.28</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>14983.130543</v>
+        <v>14983.130542999999</v>
       </c>
       <c r="L8" s="1">
-        <v>4.161981</v>
+        <v>4.1619809999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1190.800000</v>
+        <v>1190.8</v>
       </c>
       <c r="N8" s="1">
-        <v>-150.632000</v>
+        <v>-150.63200000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>14993.680951</v>
@@ -2068,360 +2484,360 @@
         <v>4.164911</v>
       </c>
       <c r="R8" s="1">
-        <v>1198.520000</v>
+        <v>1198.52</v>
       </c>
       <c r="S8" s="1">
-        <v>-128.295000</v>
+        <v>-128.29499999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
         <v>15004.226917</v>
       </c>
       <c r="V8" s="1">
-        <v>4.167841</v>
+        <v>4.1678410000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1205.510000</v>
+        <v>1205.51</v>
       </c>
       <c r="X8" s="1">
-        <v>-107.298000</v>
+        <v>-107.298</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>15014.689990</v>
+        <v>15014.689990000001</v>
       </c>
       <c r="AA8" s="1">
-        <v>4.170747</v>
+        <v>4.1707470000000004</v>
       </c>
       <c r="AB8" s="1">
-        <v>1212.580000</v>
+        <v>1212.58</v>
       </c>
       <c r="AC8" s="1">
-        <v>-90.106400</v>
+        <v>-90.106399999999994</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>15024.917993</v>
+        <v>15024.917992999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>4.173588</v>
+        <v>4.1735879999999996</v>
       </c>
       <c r="AG8" s="1">
-        <v>1217.160000</v>
+        <v>1217.1600000000001</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.705500</v>
+        <v>-85.705500000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
         <v>15035.361754</v>
       </c>
       <c r="AK8" s="1">
-        <v>4.176489</v>
+        <v>4.1764890000000001</v>
       </c>
       <c r="AL8" s="1">
-        <v>1223.990000</v>
+        <v>1223.99</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.926100</v>
+        <v>-88.926100000000005</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>15045.982588</v>
+        <v>15045.982588000001</v>
       </c>
       <c r="AP8" s="1">
-        <v>4.179440</v>
+        <v>4.1794399999999996</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1231.760000</v>
+        <v>1231.76</v>
       </c>
       <c r="AR8" s="1">
-        <v>-100.849000</v>
+        <v>-100.849</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>15057.398509</v>
+        <v>15057.398509000001</v>
       </c>
       <c r="AU8" s="1">
-        <v>4.182611</v>
+        <v>4.1826109999999996</v>
       </c>
       <c r="AV8" s="1">
-        <v>1241.620000</v>
+        <v>1241.6199999999999</v>
       </c>
       <c r="AW8" s="1">
-        <v>-120.179000</v>
+        <v>-120.179</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>15068.490046</v>
+        <v>15068.490046000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>4.185692</v>
+        <v>4.1856920000000004</v>
       </c>
       <c r="BA8" s="1">
-        <v>1250.010000</v>
+        <v>1250.01</v>
       </c>
       <c r="BB8" s="1">
-        <v>-137.589000</v>
+        <v>-137.589</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>15079.099969</v>
+        <v>15079.099969000001</v>
       </c>
       <c r="BE8" s="1">
-        <v>4.188639</v>
+        <v>4.1886390000000002</v>
       </c>
       <c r="BF8" s="1">
-        <v>1289.660000</v>
+        <v>1289.6600000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-219.378000</v>
+        <v>-219.37799999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>15090.301650</v>
+        <v>15090.301649999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>4.191750</v>
+        <v>4.1917499999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1358.570000</v>
+        <v>1358.57</v>
       </c>
       <c r="BL8" s="1">
-        <v>-355.782000</v>
+        <v>-355.78199999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>15101.167971</v>
+        <v>15101.167971000001</v>
       </c>
       <c r="BO8" s="1">
         <v>4.194769</v>
       </c>
       <c r="BP8" s="1">
-        <v>1471.660000</v>
+        <v>1471.66</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-578.485000</v>
+        <v>-578.48500000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>15112.020943</v>
       </c>
       <c r="BT8" s="1">
-        <v>4.197784</v>
+        <v>4.1977840000000004</v>
       </c>
       <c r="BU8" s="1">
-        <v>1601.830000</v>
+        <v>1601.83</v>
       </c>
       <c r="BV8" s="1">
-        <v>-830.917000</v>
+        <v>-830.91700000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>15123.169014</v>
+        <v>15123.169013999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>4.200880</v>
+        <v>4.2008799999999997</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1753.410000</v>
+        <v>1753.41</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1105.600000</v>
+        <v>-1105.5999999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>15134.720343</v>
+        <v>15134.720343000001</v>
       </c>
       <c r="CD8" s="1">
-        <v>4.204089</v>
+        <v>4.2040889999999997</v>
       </c>
       <c r="CE8" s="1">
-        <v>2172.520000</v>
+        <v>2172.52</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1774.740000</v>
+        <v>-1774.74</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>14962.576859</v>
+        <v>14962.576859000001</v>
       </c>
       <c r="B9" s="1">
-        <v>4.156271</v>
+        <v>4.1562710000000003</v>
       </c>
       <c r="C9" s="1">
-        <v>1142.570000</v>
+        <v>1142.57</v>
       </c>
       <c r="D9" s="1">
-        <v>-259.847000</v>
+        <v>-259.84699999999998</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
         <v>14972.988877</v>
       </c>
       <c r="G9" s="1">
-        <v>4.159164</v>
+        <v>4.1591639999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>1163.730000</v>
+        <v>1163.73</v>
       </c>
       <c r="I9" s="1">
-        <v>-217.994000</v>
+        <v>-217.994</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>14983.473774</v>
       </c>
       <c r="L9" s="1">
-        <v>4.162076</v>
+        <v>4.1620759999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1190.970000</v>
+        <v>1190.97</v>
       </c>
       <c r="N9" s="1">
-        <v>-150.476000</v>
+        <v>-150.476</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>14994.030624</v>
+        <v>14994.030624000001</v>
       </c>
       <c r="Q9" s="1">
-        <v>4.165009</v>
+        <v>4.1650090000000004</v>
       </c>
       <c r="R9" s="1">
-        <v>1198.520000</v>
+        <v>1198.52</v>
       </c>
       <c r="S9" s="1">
-        <v>-128.308000</v>
+        <v>-128.30799999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>15004.574111</v>
       </c>
       <c r="V9" s="1">
-        <v>4.167937</v>
+        <v>4.1679370000000002</v>
       </c>
       <c r="W9" s="1">
-        <v>1205.480000</v>
+        <v>1205.48</v>
       </c>
       <c r="X9" s="1">
-        <v>-107.252000</v>
+        <v>-107.252</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>15015.114100</v>
+        <v>15015.114100000001</v>
       </c>
       <c r="AA9" s="1">
         <v>4.170865</v>
       </c>
       <c r="AB9" s="1">
-        <v>1212.340000</v>
+        <v>1212.3399999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.794300</v>
+        <v>-89.794300000000007</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>15025.189799</v>
       </c>
       <c r="AF9" s="1">
-        <v>4.173664</v>
+        <v>4.1736639999999996</v>
       </c>
       <c r="AG9" s="1">
-        <v>1217.080000</v>
+        <v>1217.08</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.636000</v>
+        <v>-85.635999999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>15035.638058</v>
       </c>
       <c r="AK9" s="1">
-        <v>4.176566</v>
+        <v>4.1765660000000002</v>
       </c>
       <c r="AL9" s="1">
-        <v>1223.950000</v>
+        <v>1223.95</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.918300</v>
+        <v>-88.918300000000002</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>15046.344669</v>
       </c>
       <c r="AP9" s="1">
-        <v>4.179540</v>
+        <v>4.1795400000000003</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1231.810000</v>
+        <v>1231.81</v>
       </c>
       <c r="AR9" s="1">
-        <v>-100.887000</v>
+        <v>-100.887</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>15057.764093</v>
       </c>
       <c r="AU9" s="1">
-        <v>4.182712</v>
+        <v>4.1827120000000004</v>
       </c>
       <c r="AV9" s="1">
-        <v>1241.660000</v>
+        <v>1241.6600000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-120.187000</v>
+        <v>-120.187</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
         <v>15068.849151</v>
@@ -2430,13 +2846,13 @@
         <v>4.185791</v>
       </c>
       <c r="BA9" s="1">
-        <v>1249.970000</v>
+        <v>1249.97</v>
       </c>
       <c r="BB9" s="1">
-        <v>-137.600000</v>
+        <v>-137.6</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>15079.829123</v>
@@ -2445,362 +2861,362 @@
         <v>4.188841</v>
       </c>
       <c r="BF9" s="1">
-        <v>1289.670000</v>
+        <v>1289.67</v>
       </c>
       <c r="BG9" s="1">
-        <v>-219.413000</v>
+        <v>-219.41300000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>15090.678577</v>
+        <v>15090.678577000001</v>
       </c>
       <c r="BJ9" s="1">
-        <v>4.191855</v>
+        <v>4.1918550000000003</v>
       </c>
       <c r="BK9" s="1">
-        <v>1358.560000</v>
+        <v>1358.56</v>
       </c>
       <c r="BL9" s="1">
-        <v>-355.754000</v>
+        <v>-355.75400000000002</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>15101.565796</v>
+        <v>15101.565796000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>4.194879</v>
+        <v>4.1948790000000002</v>
       </c>
       <c r="BP9" s="1">
-        <v>1471.640000</v>
+        <v>1471.64</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-578.458000</v>
+        <v>-578.45799999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
         <v>15112.430132</v>
       </c>
       <c r="BT9" s="1">
-        <v>4.197897</v>
+        <v>4.1978970000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1601.890000</v>
+        <v>1601.89</v>
       </c>
       <c r="BV9" s="1">
-        <v>-830.846000</v>
+        <v>-830.846</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>15123.933845</v>
       </c>
       <c r="BY9" s="1">
-        <v>4.201093</v>
+        <v>4.2010930000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1753.420000</v>
+        <v>1753.42</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1105.660000</v>
+        <v>-1105.6600000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>15135.550682</v>
+        <v>15135.550681999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>4.204320</v>
+        <v>4.2043200000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>2171.380000</v>
+        <v>2171.38</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1773.300000</v>
+        <v>-1773.3</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>14962.926042</v>
+        <v>14962.926041999999</v>
       </c>
       <c r="B10" s="1">
-        <v>4.156368</v>
+        <v>4.1563679999999996</v>
       </c>
       <c r="C10" s="1">
-        <v>1142.300000</v>
+        <v>1142.3</v>
       </c>
       <c r="D10" s="1">
-        <v>-259.763000</v>
+        <v>-259.76299999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>14973.336044</v>
       </c>
       <c r="G10" s="1">
-        <v>4.159260</v>
+        <v>4.1592599999999997</v>
       </c>
       <c r="H10" s="1">
-        <v>1163.580000</v>
+        <v>1163.58</v>
       </c>
       <c r="I10" s="1">
-        <v>-217.206000</v>
+        <v>-217.20599999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>14983.823981</v>
       </c>
       <c r="L10" s="1">
-        <v>4.162173</v>
+        <v>4.1621730000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1190.840000</v>
+        <v>1190.8399999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-150.491000</v>
+        <v>-150.49100000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>14994.465616</v>
+        <v>14994.465615999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>4.165129</v>
+        <v>4.1651290000000003</v>
       </c>
       <c r="R10" s="1">
-        <v>1198.530000</v>
+        <v>1198.53</v>
       </c>
       <c r="S10" s="1">
-        <v>-128.294000</v>
+        <v>-128.29400000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>15004.998162</v>
       </c>
       <c r="V10" s="1">
-        <v>4.168055</v>
+        <v>4.1680549999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>1205.450000</v>
+        <v>1205.45</v>
       </c>
       <c r="X10" s="1">
-        <v>-107.242000</v>
+        <v>-107.242</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
         <v>15015.391829</v>
       </c>
       <c r="AA10" s="1">
-        <v>4.170942</v>
+        <v>4.1709420000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>1212.590000</v>
+        <v>1212.5899999999999</v>
       </c>
       <c r="AC10" s="1">
-        <v>-90.107100</v>
+        <v>-90.107100000000003</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
         <v>15025.535543</v>
       </c>
       <c r="AF10" s="1">
-        <v>4.173760</v>
+        <v>4.1737599999999997</v>
       </c>
       <c r="AG10" s="1">
-        <v>1217.130000</v>
+        <v>1217.1300000000001</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.568100</v>
+        <v>-85.568100000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>15035.987705</v>
       </c>
       <c r="AK10" s="1">
-        <v>4.176663</v>
+        <v>4.1766629999999996</v>
       </c>
       <c r="AL10" s="1">
-        <v>1223.950000</v>
+        <v>1223.95</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.944700</v>
+        <v>-88.944699999999997</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>15046.705756</v>
+        <v>15046.705755999999</v>
       </c>
       <c r="AP10" s="1">
-        <v>4.179640</v>
+        <v>4.17964</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1231.780000</v>
+        <v>1231.78</v>
       </c>
       <c r="AR10" s="1">
-        <v>-100.847000</v>
+        <v>-100.84699999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>15058.490203</v>
+        <v>15058.490202999999</v>
       </c>
       <c r="AU10" s="1">
-        <v>4.182914</v>
+        <v>4.1829140000000002</v>
       </c>
       <c r="AV10" s="1">
-        <v>1241.620000</v>
+        <v>1241.6199999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-120.169000</v>
+        <v>-120.169</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>15069.565869</v>
       </c>
       <c r="AZ10" s="1">
-        <v>4.185991</v>
+        <v>4.1859909999999996</v>
       </c>
       <c r="BA10" s="1">
-        <v>1249.970000</v>
+        <v>1249.97</v>
       </c>
       <c r="BB10" s="1">
-        <v>-137.626000</v>
+        <v>-137.626</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>15080.209055</v>
+        <v>15080.209054999999</v>
       </c>
       <c r="BE10" s="1">
-        <v>4.188947</v>
+        <v>4.1889469999999998</v>
       </c>
       <c r="BF10" s="1">
-        <v>1289.690000</v>
+        <v>1289.69</v>
       </c>
       <c r="BG10" s="1">
-        <v>-219.387000</v>
+        <v>-219.387</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
         <v>15091.051104</v>
       </c>
       <c r="BJ10" s="1">
-        <v>4.191959</v>
+        <v>4.1919589999999998</v>
       </c>
       <c r="BK10" s="1">
-        <v>1358.590000</v>
+        <v>1358.59</v>
       </c>
       <c r="BL10" s="1">
-        <v>-355.799000</v>
+        <v>-355.79899999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>15101.988711</v>
       </c>
       <c r="BO10" s="1">
-        <v>4.194997</v>
+        <v>4.1949969999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1471.650000</v>
+        <v>1471.65</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-578.430000</v>
+        <v>-578.42999999999995</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>15113.172643</v>
       </c>
       <c r="BT10" s="1">
-        <v>4.198104</v>
+        <v>4.1981039999999998</v>
       </c>
       <c r="BU10" s="1">
-        <v>1601.910000</v>
+        <v>1601.91</v>
       </c>
       <c r="BV10" s="1">
-        <v>-830.855000</v>
+        <v>-830.85500000000002</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>15124.050939</v>
+        <v>15124.050939000001</v>
       </c>
       <c r="BY10" s="1">
-        <v>4.201125</v>
+        <v>4.2011250000000002</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1753.380000</v>
+        <v>1753.38</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1105.620000</v>
+        <v>-1105.6199999999999</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>15135.754501</v>
+        <v>15135.754500999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>4.204376</v>
+        <v>4.2043759999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2170.020000</v>
+        <v>2170.02</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1774.320000</v>
+        <v>-1774.32</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>14963.267755</v>
+        <v>14963.267755000001</v>
       </c>
       <c r="B11" s="1">
-        <v>4.156463</v>
+        <v>4.1564629999999996</v>
       </c>
       <c r="C11" s="1">
-        <v>1142.340000</v>
+        <v>1142.3399999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>-259.698000</v>
+        <v>-259.69799999999998</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>14973.685266</v>
@@ -2809,300 +3225,300 @@
         <v>4.159357</v>
       </c>
       <c r="H11" s="1">
-        <v>1163.830000</v>
+        <v>1163.83</v>
       </c>
       <c r="I11" s="1">
-        <v>-217.332000</v>
+        <v>-217.33199999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>14984.246579</v>
+        <v>14984.246579000001</v>
       </c>
       <c r="L11" s="1">
-        <v>4.162291</v>
+        <v>4.1622909999999997</v>
       </c>
       <c r="M11" s="1">
-        <v>1190.790000</v>
+        <v>1190.79</v>
       </c>
       <c r="N11" s="1">
-        <v>-150.644000</v>
+        <v>-150.64400000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>14994.744895</v>
       </c>
       <c r="Q11" s="1">
-        <v>4.165207</v>
+        <v>4.1652069999999997</v>
       </c>
       <c r="R11" s="1">
-        <v>1198.410000</v>
+        <v>1198.4100000000001</v>
       </c>
       <c r="S11" s="1">
-        <v>-128.361000</v>
+        <v>-128.36099999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>15005.275427</v>
       </c>
       <c r="V11" s="1">
-        <v>4.168132</v>
+        <v>4.1681319999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>1205.400000</v>
+        <v>1205.4000000000001</v>
       </c>
       <c r="X11" s="1">
-        <v>-107.244000</v>
+        <v>-107.244</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>15015.742500</v>
+        <v>15015.7425</v>
       </c>
       <c r="AA11" s="1">
-        <v>4.171040</v>
+        <v>4.1710399999999996</v>
       </c>
       <c r="AB11" s="1">
-        <v>1212.500000</v>
+        <v>1212.5</v>
       </c>
       <c r="AC11" s="1">
-        <v>-90.123800</v>
+        <v>-90.123800000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>15025.879735</v>
       </c>
       <c r="AF11" s="1">
-        <v>4.173855</v>
+        <v>4.1738549999999996</v>
       </c>
       <c r="AG11" s="1">
-        <v>1217.100000</v>
+        <v>1217.0999999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.643000</v>
+        <v>-85.643000000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>15036.336420</v>
+        <v>15036.33642</v>
       </c>
       <c r="AK11" s="1">
-        <v>4.176760</v>
+        <v>4.1767599999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>1223.960000</v>
+        <v>1223.96</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.948600</v>
+        <v>-88.948599999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>15047.430410</v>
+        <v>15047.430410000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>4.179842</v>
+        <v>4.1798419999999998</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1231.760000</v>
+        <v>1231.76</v>
       </c>
       <c r="AR11" s="1">
-        <v>-100.855000</v>
+        <v>-100.855</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>15058.882539</v>
       </c>
       <c r="AU11" s="1">
-        <v>4.183023</v>
+        <v>4.1830230000000004</v>
       </c>
       <c r="AV11" s="1">
-        <v>1241.650000</v>
+        <v>1241.6500000000001</v>
       </c>
       <c r="AW11" s="1">
-        <v>-120.152000</v>
+        <v>-120.152</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>15069.927453</v>
       </c>
       <c r="AZ11" s="1">
-        <v>4.186091</v>
+        <v>4.1860910000000002</v>
       </c>
       <c r="BA11" s="1">
-        <v>1249.990000</v>
+        <v>1249.99</v>
       </c>
       <c r="BB11" s="1">
-        <v>-137.619000</v>
+        <v>-137.619</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>15080.570606</v>
+        <v>15080.570605999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>4.189047</v>
+        <v>4.1890470000000004</v>
       </c>
       <c r="BF11" s="1">
-        <v>1289.670000</v>
+        <v>1289.67</v>
       </c>
       <c r="BG11" s="1">
-        <v>-219.376000</v>
+        <v>-219.376</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>15091.737535</v>
       </c>
       <c r="BJ11" s="1">
-        <v>4.192149</v>
+        <v>4.1921489999999997</v>
       </c>
       <c r="BK11" s="1">
-        <v>1358.600000</v>
+        <v>1358.6</v>
       </c>
       <c r="BL11" s="1">
-        <v>-355.752000</v>
+        <v>-355.75200000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>15102.690193</v>
       </c>
       <c r="BO11" s="1">
-        <v>4.195192</v>
+        <v>4.1951919999999996</v>
       </c>
       <c r="BP11" s="1">
-        <v>1471.600000</v>
+        <v>1471.6</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-578.519000</v>
+        <v>-578.51900000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>15113.289699</v>
+        <v>15113.289699000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>4.198136</v>
+        <v>4.1981359999999999</v>
       </c>
       <c r="BU11" s="1">
-        <v>1601.870000</v>
+        <v>1601.87</v>
       </c>
       <c r="BV11" s="1">
-        <v>-830.761000</v>
+        <v>-830.76099999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>15124.489860</v>
+        <v>15124.48986</v>
       </c>
       <c r="BY11" s="1">
-        <v>4.201247</v>
+        <v>4.2012470000000004</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1753.520000</v>
+        <v>1753.52</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1105.590000</v>
+        <v>-1105.5899999999999</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>15136.272820</v>
+        <v>15136.27282</v>
       </c>
       <c r="CD11" s="1">
-        <v>4.204520</v>
+        <v>4.2045199999999996</v>
       </c>
       <c r="CE11" s="1">
-        <v>2170.330000</v>
+        <v>2170.33</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1775.140000</v>
+        <v>-1775.14</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>14963.693817</v>
+        <v>14963.693816999999</v>
       </c>
       <c r="B12" s="1">
-        <v>4.156582</v>
+        <v>4.1565820000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>1142.350000</v>
+        <v>1142.3499999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-259.929000</v>
+        <v>-259.92899999999997</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>14974.142540</v>
+        <v>14974.142540000001</v>
       </c>
       <c r="G12" s="1">
         <v>4.159484</v>
       </c>
       <c r="H12" s="1">
-        <v>1164.390000</v>
+        <v>1164.3900000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-217.205000</v>
+        <v>-217.20500000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>14984.522319</v>
       </c>
       <c r="L12" s="1">
-        <v>4.162367</v>
+        <v>4.1623669999999997</v>
       </c>
       <c r="M12" s="1">
-        <v>1191.070000</v>
+        <v>1191.07</v>
       </c>
       <c r="N12" s="1">
-        <v>-150.779000</v>
+        <v>-150.779</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>14995.093581</v>
+        <v>14995.093580999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>4.165304</v>
+        <v>4.1653039999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1198.440000</v>
+        <v>1198.44</v>
       </c>
       <c r="S12" s="1">
-        <v>-128.272000</v>
+        <v>-128.27199999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
         <v>15005.619153</v>
@@ -3111,390 +3527,390 @@
         <v>4.168228</v>
       </c>
       <c r="W12" s="1">
-        <v>1205.430000</v>
+        <v>1205.43</v>
       </c>
       <c r="X12" s="1">
-        <v>-107.195000</v>
+        <v>-107.19499999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>15016.088739</v>
+        <v>15016.088739000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>4.171136</v>
+        <v>4.1711359999999997</v>
       </c>
       <c r="AB12" s="1">
-        <v>1212.510000</v>
+        <v>1212.51</v>
       </c>
       <c r="AC12" s="1">
-        <v>-90.113800</v>
+        <v>-90.113799999999998</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>15026.565701</v>
       </c>
       <c r="AF12" s="1">
-        <v>4.174046</v>
+        <v>4.1740459999999997</v>
       </c>
       <c r="AG12" s="1">
-        <v>1216.980000</v>
+        <v>1216.98</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.563800</v>
+        <v>-85.563800000000001</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>15037.037241</v>
       </c>
       <c r="AK12" s="1">
-        <v>4.176955</v>
+        <v>4.1769550000000004</v>
       </c>
       <c r="AL12" s="1">
-        <v>1223.960000</v>
+        <v>1223.96</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.941800</v>
+        <v>-88.941800000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>15047.809354</v>
+        <v>15047.809354000001</v>
       </c>
       <c r="AP12" s="1">
-        <v>4.179947</v>
+        <v>4.1799470000000003</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1231.750000</v>
+        <v>1231.75</v>
       </c>
       <c r="AR12" s="1">
-        <v>-100.850000</v>
+        <v>-100.85</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>15059.249578</v>
+        <v>15059.249578000001</v>
       </c>
       <c r="AU12" s="1">
-        <v>4.183125</v>
+        <v>4.1831250000000004</v>
       </c>
       <c r="AV12" s="1">
-        <v>1241.620000</v>
+        <v>1241.6199999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-120.191000</v>
+        <v>-120.191</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>15070.288044</v>
+        <v>15070.288044000001</v>
       </c>
       <c r="AZ12" s="1">
         <v>4.186191</v>
       </c>
       <c r="BA12" s="1">
-        <v>1249.990000</v>
+        <v>1249.99</v>
       </c>
       <c r="BB12" s="1">
-        <v>-137.593000</v>
+        <v>-137.59299999999999</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>15081.239246</v>
+        <v>15081.239245999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>4.189233</v>
+        <v>4.1892329999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1289.700000</v>
+        <v>1289.7</v>
       </c>
       <c r="BG12" s="1">
-        <v>-219.392000</v>
+        <v>-219.392</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>15092.176533</v>
       </c>
       <c r="BJ12" s="1">
-        <v>4.192271</v>
+        <v>4.1922709999999999</v>
       </c>
       <c r="BK12" s="1">
-        <v>1358.600000</v>
+        <v>1358.6</v>
       </c>
       <c r="BL12" s="1">
-        <v>-355.782000</v>
+        <v>-355.78199999999998</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>15102.804273</v>
       </c>
       <c r="BO12" s="1">
-        <v>4.195223</v>
+        <v>4.1952230000000004</v>
       </c>
       <c r="BP12" s="1">
-        <v>1471.640000</v>
+        <v>1471.64</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-578.448000</v>
+        <v>-578.44799999999998</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>15113.726707</v>
       </c>
       <c r="BT12" s="1">
-        <v>4.198257</v>
+        <v>4.1982569999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>1601.780000</v>
+        <v>1601.78</v>
       </c>
       <c r="BV12" s="1">
-        <v>-830.908000</v>
+        <v>-830.90800000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
         <v>15124.943701</v>
       </c>
       <c r="BY12" s="1">
-        <v>4.201373</v>
+        <v>4.2013730000000002</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1753.390000</v>
+        <v>1753.39</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1105.490000</v>
+        <v>-1105.49</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>15136.820900</v>
+        <v>15136.820900000001</v>
       </c>
       <c r="CD12" s="1">
-        <v>4.204672</v>
+        <v>4.2046720000000004</v>
       </c>
       <c r="CE12" s="1">
-        <v>2169.850000</v>
+        <v>2169.85</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1774.440000</v>
+        <v>-1774.44</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>14963.968638</v>
       </c>
       <c r="B13" s="1">
-        <v>4.156658</v>
+        <v>4.1566580000000002</v>
       </c>
       <c r="C13" s="1">
-        <v>1142.540000</v>
+        <v>1142.54</v>
       </c>
       <c r="D13" s="1">
-        <v>-260.004000</v>
+        <v>-260.00400000000002</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>14974.389050</v>
+        <v>14974.38905</v>
       </c>
       <c r="G13" s="1">
-        <v>4.159553</v>
+        <v>4.1595529999999998</v>
       </c>
       <c r="H13" s="1">
-        <v>1163.890000</v>
+        <v>1163.8900000000001</v>
       </c>
       <c r="I13" s="1">
-        <v>-217.559000</v>
+        <v>-217.559</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>14984.872023</v>
       </c>
       <c r="L13" s="1">
-        <v>4.162464</v>
+        <v>4.1624639999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1191.100000</v>
+        <v>1191.0999999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-150.247000</v>
+        <v>-150.24700000000001</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>14995.440281</v>
+        <v>14995.440280999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>4.165400</v>
+        <v>4.1654</v>
       </c>
       <c r="R13" s="1">
-        <v>1198.510000</v>
+        <v>1198.51</v>
       </c>
       <c r="S13" s="1">
-        <v>-128.252000</v>
+        <v>-128.25200000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>15005.964903</v>
       </c>
       <c r="V13" s="1">
-        <v>4.168324</v>
+        <v>4.1683240000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1205.470000</v>
+        <v>1205.47</v>
       </c>
       <c r="X13" s="1">
-        <v>-107.240000</v>
+        <v>-107.24</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>15016.787602</v>
       </c>
       <c r="AA13" s="1">
-        <v>4.171330</v>
+        <v>4.1713300000000002</v>
       </c>
       <c r="AB13" s="1">
-        <v>1212.630000</v>
+        <v>1212.6300000000001</v>
       </c>
       <c r="AC13" s="1">
-        <v>-90.138100</v>
+        <v>-90.138099999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
         <v>15026.908437</v>
       </c>
       <c r="AF13" s="1">
-        <v>4.174141</v>
+        <v>4.1741409999999997</v>
       </c>
       <c r="AG13" s="1">
-        <v>1217.060000</v>
+        <v>1217.06</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.635600</v>
+        <v>-85.635599999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>15037.381497</v>
       </c>
       <c r="AK13" s="1">
-        <v>4.177050</v>
+        <v>4.1770500000000004</v>
       </c>
       <c r="AL13" s="1">
-        <v>1223.960000</v>
+        <v>1223.96</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.927000</v>
+        <v>-88.927000000000007</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>15048.165977</v>
+        <v>15048.165977000001</v>
       </c>
       <c r="AP13" s="1">
-        <v>4.180046</v>
+        <v>4.1800459999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1231.780000</v>
+        <v>1231.78</v>
       </c>
       <c r="AR13" s="1">
-        <v>-100.869000</v>
+        <v>-100.869</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>15059.929594</v>
+        <v>15059.929593999999</v>
       </c>
       <c r="AU13" s="1">
-        <v>4.183314</v>
+        <v>4.1833140000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>1241.650000</v>
+        <v>1241.6500000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-120.169000</v>
+        <v>-120.169</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>15070.961611</v>
+        <v>15070.961611000001</v>
       </c>
       <c r="AZ13" s="1">
-        <v>4.186378</v>
+        <v>4.1863780000000004</v>
       </c>
       <c r="BA13" s="1">
-        <v>1249.990000</v>
+        <v>1249.99</v>
       </c>
       <c r="BB13" s="1">
-        <v>-137.585000</v>
+        <v>-137.58500000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
         <v>15081.688097</v>
       </c>
       <c r="BE13" s="1">
-        <v>4.189358</v>
+        <v>4.1893580000000004</v>
       </c>
       <c r="BF13" s="1">
-        <v>1289.700000</v>
+        <v>1289.7</v>
       </c>
       <c r="BG13" s="1">
-        <v>-219.373000</v>
+        <v>-219.37299999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>15092.554942</v>
+        <v>15092.554942000001</v>
       </c>
       <c r="BJ13" s="1">
-        <v>4.192376</v>
+        <v>4.1923760000000003</v>
       </c>
       <c r="BK13" s="1">
-        <v>1358.580000</v>
+        <v>1358.58</v>
       </c>
       <c r="BL13" s="1">
-        <v>-355.785000</v>
+        <v>-355.78500000000003</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
         <v>15103.228385</v>
@@ -3503,13 +3919,13 @@
         <v>4.195341</v>
       </c>
       <c r="BP13" s="1">
-        <v>1471.680000</v>
+        <v>1471.68</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-578.482000</v>
+        <v>-578.48199999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
         <v>15114.138851</v>
@@ -3518,46 +3934,46 @@
         <v>4.198372</v>
       </c>
       <c r="BU13" s="1">
-        <v>1601.870000</v>
+        <v>1601.87</v>
       </c>
       <c r="BV13" s="1">
-        <v>-830.868000</v>
+        <v>-830.86800000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>15125.394067</v>
+        <v>15125.394066999999</v>
       </c>
       <c r="BY13" s="1">
         <v>4.201498</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1753.270000</v>
+        <v>1753.27</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1105.600000</v>
+        <v>-1105.5999999999999</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>15137.347651</v>
       </c>
       <c r="CD13" s="1">
-        <v>4.204819</v>
+        <v>4.2048189999999996</v>
       </c>
       <c r="CE13" s="1">
-        <v>2171.360000</v>
+        <v>2171.36</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1775.810000</v>
+        <v>-1775.81</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
         <v>14964.308856</v>
       </c>
@@ -3565,256 +3981,256 @@
         <v>4.156752</v>
       </c>
       <c r="C14" s="1">
-        <v>1142.410000</v>
+        <v>1142.4100000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-259.675000</v>
+        <v>-259.67500000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>14974.733315</v>
+        <v>14974.733314999999</v>
       </c>
       <c r="G14" s="1">
-        <v>4.159648</v>
+        <v>4.1596479999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>1164.150000</v>
+        <v>1164.1500000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-217.152000</v>
+        <v>-217.15199999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>14985.215578</v>
+        <v>14985.215577999999</v>
       </c>
       <c r="L14" s="1">
-        <v>4.162560</v>
+        <v>4.16256</v>
       </c>
       <c r="M14" s="1">
-        <v>1190.900000</v>
+        <v>1190.9000000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-150.682000</v>
+        <v>-150.68199999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>14996.138126</v>
       </c>
       <c r="Q14" s="1">
-        <v>4.165594</v>
+        <v>4.1655939999999996</v>
       </c>
       <c r="R14" s="1">
-        <v>1198.540000</v>
+        <v>1198.54</v>
       </c>
       <c r="S14" s="1">
-        <v>-128.309000</v>
+        <v>-128.309</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>15006.649344</v>
+        <v>15006.649343999999</v>
       </c>
       <c r="V14" s="1">
-        <v>4.168514</v>
+        <v>4.1685140000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1205.420000</v>
+        <v>1205.42</v>
       </c>
       <c r="X14" s="1">
-        <v>-107.238000</v>
+        <v>-107.238</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>15017.137250</v>
+        <v>15017.13725</v>
       </c>
       <c r="AA14" s="1">
-        <v>4.171427</v>
+        <v>4.1714270000000004</v>
       </c>
       <c r="AB14" s="1">
-        <v>1212.670000</v>
+        <v>1212.67</v>
       </c>
       <c r="AC14" s="1">
-        <v>-90.012900</v>
+        <v>-90.012900000000002</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>15027.251204</v>
       </c>
       <c r="AF14" s="1">
-        <v>4.174236</v>
+        <v>4.1742359999999996</v>
       </c>
       <c r="AG14" s="1">
-        <v>1217.030000</v>
+        <v>1217.03</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.598200</v>
+        <v>-85.598200000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>15037.731671</v>
       </c>
       <c r="AK14" s="1">
-        <v>4.177148</v>
+        <v>4.1771479999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>1223.940000</v>
+        <v>1223.94</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.957800</v>
+        <v>-88.957800000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>15048.835576</v>
+        <v>15048.835575999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>4.180232</v>
+        <v>4.1802320000000002</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1231.770000</v>
+        <v>1231.77</v>
       </c>
       <c r="AR14" s="1">
-        <v>-100.866000</v>
+        <v>-100.866</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>15060.377513</v>
+        <v>15060.377512999999</v>
       </c>
       <c r="AU14" s="1">
-        <v>4.183438</v>
+        <v>4.1834379999999998</v>
       </c>
       <c r="AV14" s="1">
-        <v>1241.630000</v>
+        <v>1241.6300000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-120.170000</v>
+        <v>-120.17</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>15071.361387</v>
+        <v>15071.361387000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>4.186489</v>
+        <v>4.1864889999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1249.970000</v>
+        <v>1249.97</v>
       </c>
       <c r="BB14" s="1">
-        <v>-137.626000</v>
+        <v>-137.626</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>15082.048188</v>
+        <v>15082.048188000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>4.189458</v>
+        <v>4.1894580000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1289.670000</v>
+        <v>1289.67</v>
       </c>
       <c r="BG14" s="1">
-        <v>-219.341000</v>
+        <v>-219.34100000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
         <v>15092.928957</v>
       </c>
       <c r="BJ14" s="1">
-        <v>4.192480</v>
+        <v>4.1924799999999998</v>
       </c>
       <c r="BK14" s="1">
-        <v>1358.560000</v>
+        <v>1358.56</v>
       </c>
       <c r="BL14" s="1">
-        <v>-355.772000</v>
+        <v>-355.77199999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>15103.625169</v>
+        <v>15103.625169000001</v>
       </c>
       <c r="BO14" s="1">
-        <v>4.195451</v>
+        <v>4.1954510000000003</v>
       </c>
       <c r="BP14" s="1">
-        <v>1471.620000</v>
+        <v>1471.62</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-578.503000</v>
+        <v>-578.50300000000004</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>15114.569409</v>
       </c>
       <c r="BT14" s="1">
-        <v>4.198492</v>
+        <v>4.1984919999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1601.820000</v>
+        <v>1601.82</v>
       </c>
       <c r="BV14" s="1">
-        <v>-830.874000</v>
+        <v>-830.87400000000002</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>15125.816660</v>
+        <v>15125.81666</v>
       </c>
       <c r="BY14" s="1">
-        <v>4.201616</v>
+        <v>4.2016159999999996</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1753.350000</v>
+        <v>1753.35</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1105.620000</v>
+        <v>-1105.6199999999999</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>15137.865971</v>
+        <v>15137.865970999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>4.204963</v>
+        <v>4.2049630000000002</v>
       </c>
       <c r="CE14" s="1">
-        <v>2172.750000</v>
+        <v>2172.75</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1773.890000</v>
+        <v>-1773.89</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>14964.650103</v>
       </c>
@@ -3822,58 +4238,58 @@
         <v>4.156847</v>
       </c>
       <c r="C15" s="1">
-        <v>1142.520000</v>
+        <v>1142.52</v>
       </c>
       <c r="D15" s="1">
-        <v>-259.823000</v>
+        <v>-259.82299999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>14975.420233</v>
+        <v>14975.420233000001</v>
       </c>
       <c r="G15" s="1">
-        <v>4.159839</v>
+        <v>4.1598389999999998</v>
       </c>
       <c r="H15" s="1">
-        <v>1163.800000</v>
+        <v>1163.8</v>
       </c>
       <c r="I15" s="1">
-        <v>-217.489000</v>
+        <v>-217.489</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>14985.906651</v>
+        <v>14985.906650999999</v>
       </c>
       <c r="L15" s="1">
-        <v>4.162752</v>
+        <v>4.1627520000000002</v>
       </c>
       <c r="M15" s="1">
-        <v>1190.950000</v>
+        <v>1190.95</v>
       </c>
       <c r="N15" s="1">
-        <v>-150.785000</v>
+        <v>-150.785</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>14996.490287</v>
+        <v>14996.490287000001</v>
       </c>
       <c r="Q15" s="1">
         <v>4.165692</v>
       </c>
       <c r="R15" s="1">
-        <v>1198.520000</v>
+        <v>1198.52</v>
       </c>
       <c r="S15" s="1">
-        <v>-128.306000</v>
+        <v>-128.30600000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>15006.993567</v>
@@ -3882,240 +4298,240 @@
         <v>4.168609</v>
       </c>
       <c r="W15" s="1">
-        <v>1205.430000</v>
+        <v>1205.43</v>
       </c>
       <c r="X15" s="1">
-        <v>-107.191000</v>
+        <v>-107.191</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>15017.487457</v>
+        <v>15017.487456999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>4.171524</v>
+        <v>4.1715239999999998</v>
       </c>
       <c r="AB15" s="1">
-        <v>1212.610000</v>
+        <v>1212.6099999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-90.161700</v>
+        <v>-90.161699999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
         <v>15027.898985</v>
       </c>
       <c r="AF15" s="1">
-        <v>4.174416</v>
+        <v>4.1744159999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1217.050000</v>
+        <v>1217.05</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.502800</v>
+        <v>-85.502799999999993</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>15038.390358</v>
+        <v>15038.390358000001</v>
       </c>
       <c r="AK15" s="1">
-        <v>4.177331</v>
+        <v>4.1773309999999997</v>
       </c>
       <c r="AL15" s="1">
-        <v>1223.950000</v>
+        <v>1223.95</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.929800</v>
+        <v>-88.9298</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>15049.250231</v>
       </c>
       <c r="AP15" s="1">
-        <v>4.180347</v>
+        <v>4.1803470000000003</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1231.770000</v>
+        <v>1231.77</v>
       </c>
       <c r="AR15" s="1">
-        <v>-100.856000</v>
+        <v>-100.85599999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>15060.741048</v>
       </c>
       <c r="AU15" s="1">
-        <v>4.183539</v>
+        <v>4.1835389999999997</v>
       </c>
       <c r="AV15" s="1">
-        <v>1241.640000</v>
+        <v>1241.6400000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-120.167000</v>
+        <v>-120.167</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>15071.748266</v>
+        <v>15071.748266000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>4.186597</v>
+        <v>4.1865969999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1249.980000</v>
+        <v>1249.98</v>
       </c>
       <c r="BB15" s="1">
-        <v>-137.615000</v>
+        <v>-137.61500000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>15082.409772</v>
+        <v>15082.409772000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>4.189558</v>
+        <v>4.1895579999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1289.660000</v>
+        <v>1289.6600000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-219.345000</v>
+        <v>-219.345</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>15093.351054</v>
+        <v>15093.351054000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>4.192598</v>
+        <v>4.1925980000000003</v>
       </c>
       <c r="BK15" s="1">
-        <v>1358.600000</v>
+        <v>1358.6</v>
       </c>
       <c r="BL15" s="1">
-        <v>-355.765000</v>
+        <v>-355.76499999999999</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>15104.046257</v>
       </c>
       <c r="BO15" s="1">
-        <v>4.195568</v>
+        <v>4.1955679999999997</v>
       </c>
       <c r="BP15" s="1">
-        <v>1471.690000</v>
+        <v>1471.69</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-578.500000</v>
+        <v>-578.5</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
         <v>15115.000909</v>
       </c>
       <c r="BT15" s="1">
-        <v>4.198611</v>
+        <v>4.1986109999999996</v>
       </c>
       <c r="BU15" s="1">
-        <v>1601.870000</v>
+        <v>1601.87</v>
       </c>
       <c r="BV15" s="1">
-        <v>-830.777000</v>
+        <v>-830.77700000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>15126.238290</v>
+        <v>15126.238289999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>4.201733</v>
+        <v>4.2017329999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1753.340000</v>
+        <v>1753.34</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1105.570000</v>
+        <v>-1105.57</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
         <v>15138.382307</v>
       </c>
       <c r="CD15" s="1">
-        <v>4.205106</v>
+        <v>4.2051059999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>2171.060000</v>
+        <v>2171.06</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1772.780000</v>
+        <v>-1772.78</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>14965.333591</v>
+        <v>14965.333591000001</v>
       </c>
       <c r="B16" s="1">
-        <v>4.157037</v>
+        <v>4.1570369999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1142.560000</v>
+        <v>1142.56</v>
       </c>
       <c r="D16" s="1">
-        <v>-260.213000</v>
+        <v>-260.21300000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
         <v>14975.768425</v>
       </c>
       <c r="G16" s="1">
-        <v>4.159936</v>
+        <v>4.1599360000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1163.880000</v>
+        <v>1163.8800000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-217.539000</v>
+        <v>-217.53899999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>14986.252395</v>
       </c>
       <c r="L16" s="1">
-        <v>4.162848</v>
+        <v>4.1628480000000003</v>
       </c>
       <c r="M16" s="1">
-        <v>1190.880000</v>
+        <v>1190.8800000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-150.514000</v>
+        <v>-150.51400000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>14996.835528</v>
@@ -4124,225 +4540,225 @@
         <v>4.165788</v>
       </c>
       <c r="R16" s="1">
-        <v>1198.440000</v>
+        <v>1198.44</v>
       </c>
       <c r="S16" s="1">
-        <v>-128.326000</v>
+        <v>-128.32599999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>15007.648815</v>
       </c>
       <c r="V16" s="1">
-        <v>4.168791</v>
+        <v>4.1687909999999997</v>
       </c>
       <c r="W16" s="1">
-        <v>1205.480000</v>
+        <v>1205.48</v>
       </c>
       <c r="X16" s="1">
-        <v>-107.214000</v>
+        <v>-107.214</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>15018.147137</v>
       </c>
       <c r="AA16" s="1">
-        <v>4.171708</v>
+        <v>4.1717079999999997</v>
       </c>
       <c r="AB16" s="1">
-        <v>1212.590000</v>
+        <v>1212.5899999999999</v>
       </c>
       <c r="AC16" s="1">
-        <v>-90.082900</v>
+        <v>-90.082899999999995</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>15028.281365</v>
+        <v>15028.281365000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>4.174523</v>
+        <v>4.1745229999999998</v>
       </c>
       <c r="AG16" s="1">
-        <v>1217.110000</v>
+        <v>1217.1099999999999</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.667400</v>
+        <v>-85.667400000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>15038.778241</v>
       </c>
       <c r="AK16" s="1">
-        <v>4.177438</v>
+        <v>4.1774380000000004</v>
       </c>
       <c r="AL16" s="1">
-        <v>1223.980000</v>
+        <v>1223.98</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.953000</v>
+        <v>-88.953000000000003</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>15049.633676</v>
+        <v>15049.633675999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>4.180454</v>
+        <v>4.1804540000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1231.770000</v>
+        <v>1231.77</v>
       </c>
       <c r="AR16" s="1">
-        <v>-100.881000</v>
+        <v>-100.881</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>15061.107096</v>
       </c>
       <c r="AU16" s="1">
-        <v>4.183641</v>
+        <v>4.1836409999999997</v>
       </c>
       <c r="AV16" s="1">
-        <v>1241.660000</v>
+        <v>1241.6600000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-120.161000</v>
+        <v>-120.161</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>15072.114313</v>
       </c>
       <c r="AZ16" s="1">
-        <v>4.186698</v>
+        <v>4.1866979999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1249.990000</v>
+        <v>1249.99</v>
       </c>
       <c r="BB16" s="1">
-        <v>-137.603000</v>
+        <v>-137.60300000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>15082.830907</v>
       </c>
       <c r="BE16" s="1">
-        <v>4.189675</v>
+        <v>4.1896750000000003</v>
       </c>
       <c r="BF16" s="1">
-        <v>1289.680000</v>
+        <v>1289.68</v>
       </c>
       <c r="BG16" s="1">
-        <v>-219.383000</v>
+        <v>-219.38300000000001</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>15093.706654</v>
       </c>
       <c r="BJ16" s="1">
-        <v>4.192696</v>
+        <v>4.1926959999999998</v>
       </c>
       <c r="BK16" s="1">
-        <v>1358.570000</v>
+        <v>1358.57</v>
       </c>
       <c r="BL16" s="1">
-        <v>-355.771000</v>
+        <v>-355.77100000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>15104.443087</v>
       </c>
       <c r="BO16" s="1">
-        <v>4.195679</v>
+        <v>4.1956790000000002</v>
       </c>
       <c r="BP16" s="1">
-        <v>1471.660000</v>
+        <v>1471.66</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-578.502000</v>
+        <v>-578.50199999999995</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
         <v>15115.409135</v>
       </c>
       <c r="BT16" s="1">
-        <v>4.198725</v>
+        <v>4.1987249999999996</v>
       </c>
       <c r="BU16" s="1">
-        <v>1601.800000</v>
+        <v>1601.8</v>
       </c>
       <c r="BV16" s="1">
-        <v>-830.822000</v>
+        <v>-830.822</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>15126.664322</v>
+        <v>15126.664322000001</v>
       </c>
       <c r="BY16" s="1">
-        <v>4.201851</v>
+        <v>4.2018509999999996</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1753.220000</v>
+        <v>1753.22</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1105.650000</v>
+        <v>-1105.6500000000001</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
         <v>15139.252822</v>
       </c>
       <c r="CD16" s="1">
-        <v>4.205348</v>
+        <v>4.2053479999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>2172.750000</v>
+        <v>2172.75</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1773.810000</v>
+        <v>-1773.81</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>14965.675830</v>
+        <v>14965.67583</v>
       </c>
       <c r="B17" s="1">
-        <v>4.157132</v>
+        <v>4.1571319999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>1142.640000</v>
+        <v>1142.6400000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-259.950000</v>
+        <v>-259.95</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>14976.111658</v>
@@ -4351,330 +4767,330 @@
         <v>4.160031</v>
       </c>
       <c r="H17" s="1">
-        <v>1164.210000</v>
+        <v>1164.21</v>
       </c>
       <c r="I17" s="1">
-        <v>-217.251000</v>
+        <v>-217.251</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>14986.600587</v>
+        <v>14986.600587000001</v>
       </c>
       <c r="L17" s="1">
-        <v>4.162945</v>
+        <v>4.1629449999999997</v>
       </c>
       <c r="M17" s="1">
-        <v>1191.130000</v>
+        <v>1191.1300000000001</v>
       </c>
       <c r="N17" s="1">
-        <v>-150.598000</v>
+        <v>-150.59800000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>14997.505629</v>
+        <v>14997.505628999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>4.165974</v>
+        <v>4.1659740000000003</v>
       </c>
       <c r="R17" s="1">
-        <v>1198.440000</v>
+        <v>1198.44</v>
       </c>
       <c r="S17" s="1">
-        <v>-128.283000</v>
+        <v>-128.28299999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>15008.021806</v>
+        <v>15008.021806000001</v>
       </c>
       <c r="V17" s="1">
         <v>4.168895</v>
       </c>
       <c r="W17" s="1">
-        <v>1205.490000</v>
+        <v>1205.49</v>
       </c>
       <c r="X17" s="1">
-        <v>-107.289000</v>
+        <v>-107.289</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
         <v>15018.533024</v>
       </c>
       <c r="AA17" s="1">
-        <v>4.171815</v>
+        <v>4.1718149999999996</v>
       </c>
       <c r="AB17" s="1">
-        <v>1212.710000</v>
+        <v>1212.71</v>
       </c>
       <c r="AC17" s="1">
-        <v>-90.079600</v>
+        <v>-90.079599999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
         <v>15028.625587</v>
       </c>
       <c r="AF17" s="1">
-        <v>4.174618</v>
+        <v>4.1746179999999997</v>
       </c>
       <c r="AG17" s="1">
-        <v>1217.070000</v>
+        <v>1217.07</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.500900</v>
+        <v>-85.500900000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>15039.131349</v>
+        <v>15039.131348999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>4.177536</v>
+        <v>4.1775359999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1223.930000</v>
+        <v>1223.93</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.955700</v>
+        <v>-88.955699999999993</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>15049.991287</v>
+        <v>15049.991287000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>4.180553</v>
+        <v>4.1805529999999997</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1231.740000</v>
+        <v>1231.74</v>
       </c>
       <c r="AR17" s="1">
-        <v>-100.850000</v>
+        <v>-100.85</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>15061.533683</v>
       </c>
       <c r="AU17" s="1">
-        <v>4.183759</v>
+        <v>4.1837590000000002</v>
       </c>
       <c r="AV17" s="1">
-        <v>1241.620000</v>
+        <v>1241.6199999999999</v>
       </c>
       <c r="AW17" s="1">
-        <v>-120.193000</v>
+        <v>-120.193</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
         <v>15072.527977</v>
       </c>
       <c r="AZ17" s="1">
-        <v>4.186813</v>
+        <v>4.1868129999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1249.970000</v>
+        <v>1249.97</v>
       </c>
       <c r="BB17" s="1">
-        <v>-137.608000</v>
+        <v>-137.608</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>15083.131451</v>
+        <v>15083.131450999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>4.189759</v>
+        <v>4.1897589999999996</v>
       </c>
       <c r="BF17" s="1">
-        <v>1289.680000</v>
+        <v>1289.68</v>
       </c>
       <c r="BG17" s="1">
-        <v>-219.355000</v>
+        <v>-219.35499999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>15094.084637</v>
       </c>
       <c r="BJ17" s="1">
-        <v>4.192801</v>
+        <v>4.1928010000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1358.580000</v>
+        <v>1358.58</v>
       </c>
       <c r="BL17" s="1">
-        <v>-355.749000</v>
+        <v>-355.74900000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
         <v>15104.868654</v>
       </c>
       <c r="BO17" s="1">
-        <v>4.195797</v>
+        <v>4.1957969999999998</v>
       </c>
       <c r="BP17" s="1">
-        <v>1471.650000</v>
+        <v>1471.65</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-578.435000</v>
+        <v>-578.43499999999995</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
         <v>15115.842112</v>
       </c>
       <c r="BT17" s="1">
-        <v>4.198845</v>
+        <v>4.1988450000000004</v>
       </c>
       <c r="BU17" s="1">
-        <v>1601.900000</v>
+        <v>1601.9</v>
       </c>
       <c r="BV17" s="1">
-        <v>-830.729000</v>
+        <v>-830.72900000000004</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>15127.086267</v>
+        <v>15127.086267000001</v>
       </c>
       <c r="BY17" s="1">
-        <v>4.201968</v>
+        <v>4.2019679999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1753.250000</v>
+        <v>1753.25</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1105.500000</v>
+        <v>-1105.5</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>15139.453201</v>
       </c>
       <c r="CD17" s="1">
-        <v>4.205404</v>
+        <v>4.2054039999999997</v>
       </c>
       <c r="CE17" s="1">
-        <v>2169.930000</v>
+        <v>2169.9299999999998</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1774.490000</v>
+        <v>-1774.49</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>14966.018070</v>
+        <v>14966.01807</v>
       </c>
       <c r="B18" s="1">
-        <v>4.157227</v>
+        <v>4.1572269999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>1142.800000</v>
+        <v>1142.8</v>
       </c>
       <c r="D18" s="1">
-        <v>-259.948000</v>
+        <v>-259.94799999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
         <v>14976.760425</v>
       </c>
       <c r="G18" s="1">
-        <v>4.160211</v>
+        <v>4.1602110000000003</v>
       </c>
       <c r="H18" s="1">
-        <v>1164.210000</v>
+        <v>1164.21</v>
       </c>
       <c r="I18" s="1">
-        <v>-217.456000</v>
+        <v>-217.45599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
         <v>14987.255309</v>
       </c>
       <c r="L18" s="1">
-        <v>4.163126</v>
+        <v>4.1631260000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>1190.780000</v>
+        <v>1190.78</v>
       </c>
       <c r="N18" s="1">
-        <v>-150.791000</v>
+        <v>-150.791</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>14997.881580</v>
+        <v>14997.881579999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>4.166078</v>
+        <v>4.1660779999999997</v>
       </c>
       <c r="R18" s="1">
-        <v>1198.490000</v>
+        <v>1198.49</v>
       </c>
       <c r="S18" s="1">
-        <v>-128.272000</v>
+        <v>-128.27199999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>15008.366521</v>
       </c>
       <c r="V18" s="1">
-        <v>4.168991</v>
+        <v>4.1689910000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1205.520000</v>
+        <v>1205.52</v>
       </c>
       <c r="X18" s="1">
-        <v>-107.263000</v>
+        <v>-107.26300000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>15018.882672</v>
       </c>
       <c r="AA18" s="1">
-        <v>4.171912</v>
+        <v>4.1719119999999998</v>
       </c>
       <c r="AB18" s="1">
-        <v>1212.730000</v>
+        <v>1212.73</v>
       </c>
       <c r="AC18" s="1">
-        <v>-90.189400</v>
+        <v>-90.189400000000006</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>15028.975268</v>
@@ -4683,195 +5099,195 @@
         <v>4.174715</v>
       </c>
       <c r="AG18" s="1">
-        <v>1217.140000</v>
+        <v>1217.1400000000001</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.598900</v>
+        <v>-85.5989</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>15039.482021</v>
       </c>
       <c r="AK18" s="1">
-        <v>4.177634</v>
+        <v>4.1776340000000003</v>
       </c>
       <c r="AL18" s="1">
-        <v>1223.970000</v>
+        <v>1223.97</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.962600</v>
+        <v>-88.962599999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>15050.409879</v>
+        <v>15050.409879000001</v>
       </c>
       <c r="AP18" s="1">
         <v>4.180669</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1231.770000</v>
+        <v>1231.77</v>
       </c>
       <c r="AR18" s="1">
-        <v>-100.861000</v>
+        <v>-100.861</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>15061.835719</v>
+        <v>15061.835719000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>4.183843</v>
+        <v>4.1838430000000004</v>
       </c>
       <c r="AV18" s="1">
-        <v>1241.640000</v>
+        <v>1241.6400000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-120.160000</v>
+        <v>-120.16</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>15072.829049</v>
       </c>
       <c r="AZ18" s="1">
-        <v>4.186897</v>
+        <v>4.1868970000000001</v>
       </c>
       <c r="BA18" s="1">
-        <v>1249.990000</v>
+        <v>1249.99</v>
       </c>
       <c r="BB18" s="1">
-        <v>-137.622000</v>
+        <v>-137.62200000000001</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>15083.491050</v>
+        <v>15083.491050000001</v>
       </c>
       <c r="BE18" s="1">
-        <v>4.189859</v>
+        <v>4.1898590000000002</v>
       </c>
       <c r="BF18" s="1">
-        <v>1289.670000</v>
+        <v>1289.67</v>
       </c>
       <c r="BG18" s="1">
-        <v>-219.368000</v>
+        <v>-219.36799999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>15094.458619</v>
+        <v>15094.458619000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>4.192905</v>
+        <v>4.1929049999999997</v>
       </c>
       <c r="BK18" s="1">
-        <v>1358.590000</v>
+        <v>1358.59</v>
       </c>
       <c r="BL18" s="1">
-        <v>-355.795000</v>
+        <v>-355.79500000000002</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>15105.262484</v>
+        <v>15105.262484000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>4.195906</v>
+        <v>4.1959059999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1471.640000</v>
+        <v>1471.64</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-578.492000</v>
+        <v>-578.49199999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>15116.270655</v>
       </c>
       <c r="BT18" s="1">
-        <v>4.198964</v>
+        <v>4.1989640000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1601.790000</v>
+        <v>1601.79</v>
       </c>
       <c r="BV18" s="1">
-        <v>-830.814000</v>
+        <v>-830.81399999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>15127.529380</v>
+        <v>15127.52938</v>
       </c>
       <c r="BY18" s="1">
-        <v>4.202091</v>
+        <v>4.2020910000000002</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1753.410000</v>
+        <v>1753.41</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1105.530000</v>
+        <v>-1105.53</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>15139.977440</v>
+        <v>15139.977440000001</v>
       </c>
       <c r="CD18" s="1">
-        <v>4.205549</v>
+        <v>4.2055490000000004</v>
       </c>
       <c r="CE18" s="1">
-        <v>2169.840000</v>
+        <v>2169.84</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1773.590000</v>
+        <v>-1773.59</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>14966.672294</v>
       </c>
       <c r="B19" s="1">
-        <v>4.157409</v>
+        <v>4.1574090000000004</v>
       </c>
       <c r="C19" s="1">
-        <v>1142.170000</v>
+        <v>1142.17</v>
       </c>
       <c r="D19" s="1">
-        <v>-259.795000</v>
+        <v>-259.79500000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>14977.143367</v>
+        <v>14977.143367000001</v>
       </c>
       <c r="G19" s="1">
-        <v>4.160318</v>
+        <v>4.1603180000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>1164.570000</v>
+        <v>1164.57</v>
       </c>
       <c r="I19" s="1">
-        <v>-217.147000</v>
+        <v>-217.14699999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
         <v>14987.637691</v>
@@ -4880,208 +5296,208 @@
         <v>4.163233</v>
       </c>
       <c r="M19" s="1">
-        <v>1190.970000</v>
+        <v>1190.97</v>
       </c>
       <c r="N19" s="1">
-        <v>-150.709000</v>
+        <v>-150.709</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>14998.232731</v>
       </c>
       <c r="Q19" s="1">
-        <v>4.166176</v>
+        <v>4.1661760000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1198.530000</v>
+        <v>1198.53</v>
       </c>
       <c r="S19" s="1">
-        <v>-128.243000</v>
+        <v>-128.24299999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>15008.711709</v>
+        <v>15008.711708999999</v>
       </c>
       <c r="V19" s="1">
-        <v>4.169087</v>
+        <v>4.1690870000000002</v>
       </c>
       <c r="W19" s="1">
-        <v>1205.420000</v>
+        <v>1205.42</v>
       </c>
       <c r="X19" s="1">
-        <v>-107.219000</v>
+        <v>-107.21899999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>15019.231359</v>
+        <v>15019.231358999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>4.172009</v>
+        <v>4.1720090000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1212.660000</v>
+        <v>1212.6600000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-90.054700</v>
+        <v>-90.054699999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>15029.382023</v>
       </c>
       <c r="AF19" s="1">
-        <v>4.174828</v>
+        <v>4.1748279999999998</v>
       </c>
       <c r="AG19" s="1">
-        <v>1217.070000</v>
+        <v>1217.07</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.556000</v>
+        <v>-85.555999999999997</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>15039.935369</v>
+        <v>15039.935369000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>4.177760</v>
+        <v>4.1777600000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1223.950000</v>
+        <v>1223.95</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.938700</v>
+        <v>-88.938699999999997</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>15050.711942</v>
       </c>
       <c r="AP19" s="1">
-        <v>4.180753</v>
+        <v>4.1807530000000002</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1231.770000</v>
+        <v>1231.77</v>
       </c>
       <c r="AR19" s="1">
-        <v>-100.851000</v>
+        <v>-100.851</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>15062.200775</v>
+        <v>15062.200774999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>4.183945</v>
+        <v>4.1839449999999996</v>
       </c>
       <c r="AV19" s="1">
-        <v>1241.610000</v>
+        <v>1241.6099999999999</v>
       </c>
       <c r="AW19" s="1">
-        <v>-120.159000</v>
+        <v>-120.15900000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>15073.189144</v>
       </c>
       <c r="AZ19" s="1">
-        <v>4.186997</v>
+        <v>4.1869969999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1250.000000</v>
+        <v>1250</v>
       </c>
       <c r="BB19" s="1">
-        <v>-137.610000</v>
+        <v>-137.61000000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>15083.851146</v>
+        <v>15083.851146000001</v>
       </c>
       <c r="BE19" s="1">
         <v>4.189959</v>
       </c>
       <c r="BF19" s="1">
-        <v>1289.680000</v>
+        <v>1289.68</v>
       </c>
       <c r="BG19" s="1">
-        <v>-219.372000</v>
+        <v>-219.37200000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>15095.210524</v>
       </c>
       <c r="BJ19" s="1">
-        <v>4.193114</v>
+        <v>4.1931139999999996</v>
       </c>
       <c r="BK19" s="1">
-        <v>1358.570000</v>
+        <v>1358.57</v>
       </c>
       <c r="BL19" s="1">
-        <v>-355.775000</v>
+        <v>-355.77499999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>15106.076380</v>
+        <v>15106.07638</v>
       </c>
       <c r="BO19" s="1">
-        <v>4.196132</v>
+        <v>4.1961320000000004</v>
       </c>
       <c r="BP19" s="1">
-        <v>1471.650000</v>
+        <v>1471.65</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-578.509000</v>
+        <v>-578.50900000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
         <v>15116.677904</v>
       </c>
       <c r="BT19" s="1">
-        <v>4.199077</v>
+        <v>4.1990769999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1601.820000</v>
+        <v>1601.82</v>
       </c>
       <c r="BV19" s="1">
-        <v>-830.825000</v>
+        <v>-830.82500000000005</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>15127.951439</v>
       </c>
       <c r="BY19" s="1">
-        <v>4.202209</v>
+        <v>4.2022089999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1753.440000</v>
+        <v>1753.44</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1105.610000</v>
+        <v>-1105.6099999999999</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>15140.812735</v>
@@ -5090,1044 +5506,1044 @@
         <v>4.205781</v>
       </c>
       <c r="CE19" s="1">
-        <v>2170.800000</v>
+        <v>2170.8000000000002</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1775.610000</v>
+        <v>-1775.61</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>14967.043333</v>
       </c>
       <c r="B20" s="1">
-        <v>4.157512</v>
+        <v>4.1575119999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>1142.550000</v>
+        <v>1142.55</v>
       </c>
       <c r="D20" s="1">
-        <v>-259.774000</v>
+        <v>-259.774</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>14977.488054</v>
+        <v>14977.488053999999</v>
       </c>
       <c r="G20" s="1">
-        <v>4.160413</v>
+        <v>4.1604130000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1163.970000</v>
+        <v>1163.97</v>
       </c>
       <c r="I20" s="1">
-        <v>-218.080000</v>
+        <v>-218.08</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>14987.984920</v>
+        <v>14987.984920000001</v>
       </c>
       <c r="L20" s="1">
-        <v>4.163329</v>
+        <v>4.1633290000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>1191.050000</v>
+        <v>1191.05</v>
       </c>
       <c r="N20" s="1">
-        <v>-150.653000</v>
+        <v>-150.65299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>14998.581144</v>
       </c>
       <c r="Q20" s="1">
-        <v>4.166273</v>
+        <v>4.1662730000000003</v>
       </c>
       <c r="R20" s="1">
-        <v>1198.510000</v>
+        <v>1198.51</v>
       </c>
       <c r="S20" s="1">
-        <v>-128.345000</v>
+        <v>-128.345</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>15009.133309</v>
+        <v>15009.133309000001</v>
       </c>
       <c r="V20" s="1">
-        <v>4.169204</v>
+        <v>4.1692039999999997</v>
       </c>
       <c r="W20" s="1">
-        <v>1205.450000</v>
+        <v>1205.45</v>
       </c>
       <c r="X20" s="1">
-        <v>-107.256000</v>
+        <v>-107.256</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>15019.658446</v>
+        <v>15019.658445999999</v>
       </c>
       <c r="AA20" s="1">
-        <v>4.172127</v>
+        <v>4.1721269999999997</v>
       </c>
       <c r="AB20" s="1">
-        <v>1212.590000</v>
+        <v>1212.5899999999999</v>
       </c>
       <c r="AC20" s="1">
-        <v>-90.117700</v>
+        <v>-90.117699999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>15029.680579</v>
       </c>
       <c r="AF20" s="1">
-        <v>4.174911</v>
+        <v>4.1749109999999998</v>
       </c>
       <c r="AG20" s="1">
-        <v>1217.200000</v>
+        <v>1217.2</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.571500</v>
+        <v>-85.5715</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>15040.183897</v>
+        <v>15040.183897000001</v>
       </c>
       <c r="AK20" s="1">
         <v>4.177829</v>
       </c>
       <c r="AL20" s="1">
-        <v>1223.980000</v>
+        <v>1223.98</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.955100</v>
+        <v>-88.955100000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>15051.071574</v>
       </c>
       <c r="AP20" s="1">
-        <v>4.180853</v>
+        <v>4.1808529999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1231.790000</v>
+        <v>1231.79</v>
       </c>
       <c r="AR20" s="1">
-        <v>-100.860000</v>
+        <v>-100.86</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>15062.564870</v>
+        <v>15062.56487</v>
       </c>
       <c r="AU20" s="1">
-        <v>4.184046</v>
+        <v>4.1840460000000004</v>
       </c>
       <c r="AV20" s="1">
-        <v>1241.670000</v>
+        <v>1241.67</v>
       </c>
       <c r="AW20" s="1">
-        <v>-120.165000</v>
+        <v>-120.16500000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>15073.904909</v>
+        <v>15073.904909000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>4.187196</v>
+        <v>4.1871960000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1250.000000</v>
+        <v>1250</v>
       </c>
       <c r="BB20" s="1">
-        <v>-137.599000</v>
+        <v>-137.59899999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>15084.575306</v>
+        <v>15084.575306000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>4.190160</v>
+        <v>4.1901599999999997</v>
       </c>
       <c r="BF20" s="1">
-        <v>1289.710000</v>
+        <v>1289.71</v>
       </c>
       <c r="BG20" s="1">
-        <v>-219.415000</v>
+        <v>-219.41499999999999</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>15095.585995</v>
+        <v>15095.585994999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>4.193218</v>
+        <v>4.1932179999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1358.590000</v>
+        <v>1358.59</v>
       </c>
       <c r="BL20" s="1">
-        <v>-355.770000</v>
+        <v>-355.77</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>15106.491566</v>
+        <v>15106.491566000001</v>
       </c>
       <c r="BO20" s="1">
-        <v>4.196248</v>
+        <v>4.1962479999999998</v>
       </c>
       <c r="BP20" s="1">
-        <v>1471.630000</v>
+        <v>1471.63</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-578.438000</v>
+        <v>-578.43799999999999</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
         <v>15117.109392</v>
       </c>
       <c r="BT20" s="1">
-        <v>4.199197</v>
+        <v>4.1991969999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>1601.780000</v>
+        <v>1601.78</v>
       </c>
       <c r="BV20" s="1">
-        <v>-830.790000</v>
+        <v>-830.79</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
         <v>15128.691471</v>
       </c>
       <c r="BY20" s="1">
-        <v>4.202414</v>
+        <v>4.2024140000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1753.540000</v>
+        <v>1753.54</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1105.620000</v>
+        <v>-1105.6199999999999</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>15141.049828</v>
+        <v>15141.049827999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>4.205847</v>
+        <v>4.2058470000000003</v>
       </c>
       <c r="CE20" s="1">
-        <v>2172.380000</v>
+        <v>2172.38</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1773.470000</v>
+        <v>-1773.47</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>14967.388547</v>
       </c>
       <c r="B21" s="1">
-        <v>4.157608</v>
+        <v>4.1576079999999997</v>
       </c>
       <c r="C21" s="1">
-        <v>1142.880000</v>
+        <v>1142.8800000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-260.057000</v>
+        <v>-260.05700000000002</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>14977.836742</v>
       </c>
       <c r="G21" s="1">
-        <v>4.160510</v>
+        <v>4.1605100000000004</v>
       </c>
       <c r="H21" s="1">
-        <v>1163.660000</v>
+        <v>1163.6600000000001</v>
       </c>
       <c r="I21" s="1">
-        <v>-218.085000</v>
+        <v>-218.08500000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>14988.327129</v>
+        <v>14988.327128999999</v>
       </c>
       <c r="L21" s="1">
         <v>4.163424</v>
       </c>
       <c r="M21" s="1">
-        <v>1191.200000</v>
+        <v>1191.2</v>
       </c>
       <c r="N21" s="1">
-        <v>-150.521000</v>
+        <v>-150.52099999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>14998.996570</v>
+        <v>14998.996569999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>4.166388</v>
+        <v>4.1663880000000004</v>
       </c>
       <c r="R21" s="1">
-        <v>1198.480000</v>
+        <v>1198.48</v>
       </c>
       <c r="S21" s="1">
-        <v>-128.341000</v>
+        <v>-128.34100000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>15009.424492</v>
       </c>
       <c r="V21" s="1">
-        <v>4.169285</v>
+        <v>4.1692850000000004</v>
       </c>
       <c r="W21" s="1">
-        <v>1205.380000</v>
+        <v>1205.3800000000001</v>
       </c>
       <c r="X21" s="1">
-        <v>-107.249000</v>
+        <v>-107.249</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>15019.936207</v>
+        <v>15019.936207000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>4.172205</v>
+        <v>4.1722049999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1212.570000</v>
+        <v>1212.57</v>
       </c>
       <c r="AC21" s="1">
-        <v>-90.089500</v>
+        <v>-90.089500000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>15030.024305</v>
+        <v>15030.024305000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>4.175007</v>
+        <v>4.1750069999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1217.060000</v>
+        <v>1217.06</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.626300</v>
+        <v>-85.626300000000001</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
         <v>15040.531555</v>
       </c>
       <c r="AK21" s="1">
-        <v>4.177925</v>
+        <v>4.1779250000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>1223.920000</v>
+        <v>1223.92</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.950200</v>
+        <v>-88.950199999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>15051.435637</v>
       </c>
       <c r="AP21" s="1">
-        <v>4.180954</v>
+        <v>4.1809539999999998</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1231.770000</v>
+        <v>1231.77</v>
       </c>
       <c r="AR21" s="1">
-        <v>-100.846000</v>
+        <v>-100.846</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>15063.294949</v>
+        <v>15063.294948999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>4.184249</v>
+        <v>4.1842490000000003</v>
       </c>
       <c r="AV21" s="1">
-        <v>1241.620000</v>
+        <v>1241.6199999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-120.186000</v>
+        <v>-120.18600000000001</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>15074.262983</v>
+        <v>15074.262983000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>4.187295</v>
+        <v>4.1872949999999998</v>
       </c>
       <c r="BA21" s="1">
-        <v>1249.990000</v>
+        <v>1249.99</v>
       </c>
       <c r="BB21" s="1">
-        <v>-137.628000</v>
+        <v>-137.62799999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>15084.965657</v>
+        <v>15084.965657000001</v>
       </c>
       <c r="BE21" s="1">
-        <v>4.190268</v>
+        <v>4.1902679999999997</v>
       </c>
       <c r="BF21" s="1">
-        <v>1289.690000</v>
+        <v>1289.69</v>
       </c>
       <c r="BG21" s="1">
-        <v>-219.362000</v>
+        <v>-219.36199999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>15095.961001</v>
       </c>
       <c r="BJ21" s="1">
-        <v>4.193323</v>
+        <v>4.1933230000000004</v>
       </c>
       <c r="BK21" s="1">
-        <v>1358.600000</v>
+        <v>1358.6</v>
       </c>
       <c r="BL21" s="1">
-        <v>-355.790000</v>
+        <v>-355.79</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>15107.204285</v>
       </c>
       <c r="BO21" s="1">
-        <v>4.196446</v>
+        <v>4.1964459999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1471.680000</v>
+        <v>1471.68</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-578.472000</v>
+        <v>-578.47199999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>15117.855869</v>
+        <v>15117.855869000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>4.199404</v>
+        <v>4.1994040000000004</v>
       </c>
       <c r="BU21" s="1">
-        <v>1601.970000</v>
+        <v>1601.97</v>
       </c>
       <c r="BV21" s="1">
-        <v>-830.860000</v>
+        <v>-830.86</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>15128.851678</v>
+        <v>15128.851678000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>4.202459</v>
+        <v>4.2024590000000002</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1753.460000</v>
+        <v>1753.46</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1105.580000</v>
+        <v>-1105.58</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>15141.581534</v>
+        <v>15141.581534000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>4.205995</v>
+        <v>4.2059949999999997</v>
       </c>
       <c r="CE21" s="1">
-        <v>2170.060000</v>
+        <v>2170.06</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1774.030000</v>
+        <v>-1774.03</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>14967.723813</v>
+        <v>14967.723813000001</v>
       </c>
       <c r="B22" s="1">
-        <v>4.157701</v>
+        <v>4.1577010000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>1142.360000</v>
+        <v>1142.3599999999999</v>
       </c>
       <c r="D22" s="1">
-        <v>-259.724000</v>
+        <v>-259.72399999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>14978.257884</v>
+        <v>14978.257884000001</v>
       </c>
       <c r="G22" s="1">
-        <v>4.160627</v>
+        <v>4.1606269999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1163.290000</v>
+        <v>1163.29</v>
       </c>
       <c r="I22" s="1">
-        <v>-217.507000</v>
+        <v>-217.50700000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>14988.742281</v>
+        <v>14988.742281000001</v>
       </c>
       <c r="L22" s="1">
-        <v>4.163540</v>
+        <v>4.1635400000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>1190.970000</v>
+        <v>1190.97</v>
       </c>
       <c r="N22" s="1">
-        <v>-150.613000</v>
+        <v>-150.613</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>14999.287258</v>
       </c>
       <c r="Q22" s="1">
-        <v>4.166469</v>
+        <v>4.1664690000000002</v>
       </c>
       <c r="R22" s="1">
-        <v>1198.430000</v>
+        <v>1198.43</v>
       </c>
       <c r="S22" s="1">
-        <v>-128.317000</v>
+        <v>-128.31700000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>15009.770205</v>
+        <v>15009.770205000001</v>
       </c>
       <c r="V22" s="1">
-        <v>4.169381</v>
+        <v>4.1693809999999996</v>
       </c>
       <c r="W22" s="1">
-        <v>1205.480000</v>
+        <v>1205.48</v>
       </c>
       <c r="X22" s="1">
-        <v>-107.341000</v>
+        <v>-107.34099999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>15020.285391</v>
+        <v>15020.285390999999</v>
       </c>
       <c r="AA22" s="1">
         <v>4.172301</v>
       </c>
       <c r="AB22" s="1">
-        <v>1212.430000</v>
+        <v>1212.43</v>
       </c>
       <c r="AC22" s="1">
-        <v>-90.095300</v>
+        <v>-90.095299999999995</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
         <v>15030.367537</v>
       </c>
       <c r="AF22" s="1">
-        <v>4.175102</v>
+        <v>4.1751019999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>1217.080000</v>
+        <v>1217.08</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.517000</v>
+        <v>-85.516999999999996</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>15041.230915</v>
       </c>
       <c r="AK22" s="1">
-        <v>4.178120</v>
+        <v>4.1781199999999998</v>
       </c>
       <c r="AL22" s="1">
-        <v>1223.940000</v>
+        <v>1223.94</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.929400</v>
+        <v>-88.929400000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>15052.154309</v>
       </c>
       <c r="AP22" s="1">
-        <v>4.181154</v>
+        <v>4.1811540000000003</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1231.760000</v>
+        <v>1231.76</v>
       </c>
       <c r="AR22" s="1">
-        <v>-100.857000</v>
+        <v>-100.857</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>15063.680377</v>
+        <v>15063.680377000001</v>
       </c>
       <c r="AU22" s="1">
-        <v>4.184356</v>
+        <v>4.1843560000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>1241.660000</v>
+        <v>1241.6600000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-120.166000</v>
+        <v>-120.166</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
         <v>15074.624464</v>
       </c>
       <c r="AZ22" s="1">
-        <v>4.187396</v>
+        <v>4.1873959999999997</v>
       </c>
       <c r="BA22" s="1">
-        <v>1250.000000</v>
+        <v>1250</v>
       </c>
       <c r="BB22" s="1">
-        <v>-137.633000</v>
+        <v>-137.63300000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>15085.328232</v>
       </c>
       <c r="BE22" s="1">
-        <v>4.190369</v>
+        <v>4.1903689999999996</v>
       </c>
       <c r="BF22" s="1">
-        <v>1289.710000</v>
+        <v>1289.71</v>
       </c>
       <c r="BG22" s="1">
-        <v>-219.355000</v>
+        <v>-219.35499999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>15096.648458</v>
       </c>
       <c r="BJ22" s="1">
-        <v>4.193513</v>
+        <v>4.1935130000000003</v>
       </c>
       <c r="BK22" s="1">
-        <v>1358.590000</v>
+        <v>1358.59</v>
       </c>
       <c r="BL22" s="1">
-        <v>-355.761000</v>
+        <v>-355.76100000000002</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>15107.313934</v>
       </c>
       <c r="BO22" s="1">
-        <v>4.196476</v>
+        <v>4.1964759999999997</v>
       </c>
       <c r="BP22" s="1">
-        <v>1471.640000</v>
+        <v>1471.64</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-578.496000</v>
+        <v>-578.49599999999998</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>15117.987146</v>
+        <v>15117.987145999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>4.199441</v>
+        <v>4.1994410000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>1601.850000</v>
+        <v>1601.85</v>
       </c>
       <c r="BV22" s="1">
-        <v>-830.849000</v>
+        <v>-830.84900000000005</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>15129.278734</v>
       </c>
       <c r="BY22" s="1">
-        <v>4.202577</v>
+        <v>4.2025769999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1753.470000</v>
+        <v>1753.47</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1105.520000</v>
+        <v>-1105.52</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>15142.122638</v>
+        <v>15142.122638000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>4.206145</v>
+        <v>4.2061450000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>2171.850000</v>
+        <v>2171.85</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1775.130000</v>
+        <v>-1775.13</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>14968.147891</v>
+        <v>14968.147891000001</v>
       </c>
       <c r="B23" s="1">
-        <v>4.157819</v>
+        <v>4.1578189999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1142.390000</v>
+        <v>1142.3900000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-260.016000</v>
+        <v>-260.01600000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>14978.538581</v>
+        <v>14978.538581000001</v>
       </c>
       <c r="G23" s="1">
-        <v>4.160705</v>
+        <v>4.1607050000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1164.670000</v>
+        <v>1164.67</v>
       </c>
       <c r="I23" s="1">
-        <v>-218.210000</v>
+        <v>-218.21</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>14989.038887</v>
+        <v>14989.038887000001</v>
       </c>
       <c r="L23" s="1">
-        <v>4.163622</v>
+        <v>4.1636220000000002</v>
       </c>
       <c r="M23" s="1">
-        <v>1190.990000</v>
+        <v>1190.99</v>
       </c>
       <c r="N23" s="1">
-        <v>-151.057000</v>
+        <v>-151.05699999999999</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>14999.633961</v>
       </c>
       <c r="Q23" s="1">
-        <v>4.166565</v>
+        <v>4.1665650000000003</v>
       </c>
       <c r="R23" s="1">
-        <v>1198.430000</v>
+        <v>1198.43</v>
       </c>
       <c r="S23" s="1">
-        <v>-128.284000</v>
+        <v>-128.28399999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>15010.112907</v>
+        <v>15010.112907000001</v>
       </c>
       <c r="V23" s="1">
-        <v>4.169476</v>
+        <v>4.1694760000000004</v>
       </c>
       <c r="W23" s="1">
-        <v>1205.460000</v>
+        <v>1205.46</v>
       </c>
       <c r="X23" s="1">
-        <v>-107.339000</v>
+        <v>-107.339</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>15020.631070</v>
+        <v>15020.631069999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>4.172398</v>
+        <v>4.1723980000000003</v>
       </c>
       <c r="AB23" s="1">
-        <v>1212.690000</v>
+        <v>1212.69</v>
       </c>
       <c r="AC23" s="1">
-        <v>-90.080100</v>
+        <v>-90.080100000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>15031.053536</v>
+        <v>15031.053535999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>4.175293</v>
+        <v>4.1752929999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1217.070000</v>
+        <v>1217.07</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.593600</v>
+        <v>-85.593599999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>15041.579106</v>
+        <v>15041.579105999999</v>
       </c>
       <c r="AK23" s="1">
-        <v>4.178216</v>
+        <v>4.1782159999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1223.960000</v>
+        <v>1223.96</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.918500</v>
+        <v>-88.918499999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>15052.515924</v>
+        <v>15052.515923999999</v>
       </c>
       <c r="AP23" s="1">
         <v>4.181254</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1231.780000</v>
+        <v>1231.78</v>
       </c>
       <c r="AR23" s="1">
-        <v>-100.870000</v>
+        <v>-100.87</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>15064.047412</v>
       </c>
       <c r="AU23" s="1">
-        <v>4.184458</v>
+        <v>4.1844580000000002</v>
       </c>
       <c r="AV23" s="1">
-        <v>1241.620000</v>
+        <v>1241.6199999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-120.185000</v>
+        <v>-120.185</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>15075.293669</v>
+        <v>15075.293669000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>4.187582</v>
+        <v>4.1875819999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1250.000000</v>
+        <v>1250</v>
       </c>
       <c r="BB23" s="1">
-        <v>-137.622000</v>
+        <v>-137.62200000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>15085.992871</v>
       </c>
       <c r="BE23" s="1">
-        <v>4.190554</v>
+        <v>4.1905539999999997</v>
       </c>
       <c r="BF23" s="1">
-        <v>1289.670000</v>
+        <v>1289.67</v>
       </c>
       <c r="BG23" s="1">
-        <v>-219.366000</v>
+        <v>-219.36600000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>15097.084904</v>
+        <v>15097.084903999999</v>
       </c>
       <c r="BJ23" s="1">
-        <v>4.193635</v>
+        <v>4.1936349999999996</v>
       </c>
       <c r="BK23" s="1">
-        <v>1358.610000</v>
+        <v>1358.61</v>
       </c>
       <c r="BL23" s="1">
-        <v>-355.793000</v>
+        <v>-355.79300000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>15107.733020</v>
+        <v>15107.73302</v>
       </c>
       <c r="BO23" s="1">
         <v>4.196593</v>
       </c>
       <c r="BP23" s="1">
-        <v>1471.630000</v>
+        <v>1471.63</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-578.461000</v>
+        <v>-578.46100000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>15118.394524</v>
+        <v>15118.394523999999</v>
       </c>
       <c r="BT23" s="1">
         <v>4.199554</v>
       </c>
       <c r="BU23" s="1">
-        <v>1601.790000</v>
+        <v>1601.79</v>
       </c>
       <c r="BV23" s="1">
-        <v>-830.749000</v>
+        <v>-830.74900000000002</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>15129.726623</v>
       </c>
       <c r="BY23" s="1">
-        <v>4.202702</v>
+        <v>4.2027020000000004</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1753.490000</v>
+        <v>1753.49</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1105.600000</v>
+        <v>-1105.5999999999999</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>15142.663286</v>
+        <v>15142.663286000001</v>
       </c>
       <c r="CD23" s="1">
-        <v>4.206295</v>
+        <v>4.2062949999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2171.420000</v>
+        <v>2171.42</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1773.000000</v>
+        <v>-1773</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>14968.425189</v>
       </c>
@@ -6135,103 +6551,103 @@
         <v>4.157896</v>
       </c>
       <c r="C24" s="1">
-        <v>1142.610000</v>
+        <v>1142.6099999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-259.819000</v>
+        <v>-259.81900000000002</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>14978.881845</v>
       </c>
       <c r="G24" s="1">
-        <v>4.160801</v>
+        <v>4.1608010000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>1163.840000</v>
+        <v>1163.8399999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-217.497000</v>
+        <v>-217.49700000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>14989.384599</v>
+        <v>14989.384599000001</v>
       </c>
       <c r="L24" s="1">
-        <v>4.163718</v>
+        <v>4.1637180000000003</v>
       </c>
       <c r="M24" s="1">
-        <v>1190.960000</v>
+        <v>1190.96</v>
       </c>
       <c r="N24" s="1">
-        <v>-150.687000</v>
+        <v>-150.68700000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>14999.984620</v>
+        <v>14999.984619999999</v>
       </c>
       <c r="Q24" s="1">
-        <v>4.166662</v>
+        <v>4.1666619999999996</v>
       </c>
       <c r="R24" s="1">
-        <v>1198.510000</v>
+        <v>1198.51</v>
       </c>
       <c r="S24" s="1">
-        <v>-128.242000</v>
+        <v>-128.24199999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
         <v>15010.800362</v>
       </c>
       <c r="V24" s="1">
-        <v>4.169667</v>
+        <v>4.1696669999999996</v>
       </c>
       <c r="W24" s="1">
-        <v>1205.440000</v>
+        <v>1205.44</v>
       </c>
       <c r="X24" s="1">
-        <v>-107.211000</v>
+        <v>-107.211</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>15021.331918</v>
       </c>
       <c r="AA24" s="1">
-        <v>4.172592</v>
+        <v>4.1725919999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1212.610000</v>
+        <v>1212.6099999999999</v>
       </c>
       <c r="AC24" s="1">
-        <v>-90.170900</v>
+        <v>-90.170900000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>15031.397761</v>
       </c>
       <c r="AF24" s="1">
-        <v>4.175388</v>
+        <v>4.1753879999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1217.120000</v>
+        <v>1217.1199999999999</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.587400</v>
+        <v>-85.587400000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>15041.923858</v>
@@ -6240,195 +6656,195 @@
         <v>4.178312</v>
       </c>
       <c r="AL24" s="1">
-        <v>1223.950000</v>
+        <v>1223.95</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.930600</v>
+        <v>-88.930599999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
         <v>15052.874996</v>
       </c>
       <c r="AP24" s="1">
-        <v>4.181354</v>
+        <v>4.1813539999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1231.760000</v>
+        <v>1231.76</v>
       </c>
       <c r="AR24" s="1">
-        <v>-100.879000</v>
+        <v>-100.879</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>15064.725174</v>
+        <v>15064.725173999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>4.184646</v>
+        <v>4.1846459999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1241.640000</v>
+        <v>1241.6400000000001</v>
       </c>
       <c r="AW24" s="1">
-        <v>-120.185000</v>
+        <v>-120.185</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>15075.696421</v>
+        <v>15075.696421000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>4.187693</v>
+        <v>4.1876930000000003</v>
       </c>
       <c r="BA24" s="1">
-        <v>1249.970000</v>
+        <v>1249.97</v>
       </c>
       <c r="BB24" s="1">
-        <v>-137.619000</v>
+        <v>-137.619</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>15086.411991</v>
+        <v>15086.411991000001</v>
       </c>
       <c r="BE24" s="1">
-        <v>4.190670</v>
+        <v>4.1906699999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1289.720000</v>
+        <v>1289.72</v>
       </c>
       <c r="BG24" s="1">
-        <v>-219.416000</v>
+        <v>-219.416</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>15097.461368</v>
       </c>
       <c r="BJ24" s="1">
-        <v>4.193739</v>
+        <v>4.1937389999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1358.550000</v>
+        <v>1358.55</v>
       </c>
       <c r="BL24" s="1">
-        <v>-355.762000</v>
+        <v>-355.762</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
         <v>15108.128827</v>
       </c>
       <c r="BO24" s="1">
-        <v>4.196702</v>
+        <v>4.1967020000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1471.630000</v>
+        <v>1471.63</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-578.491000</v>
+        <v>-578.49099999999999</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>15118.825051</v>
       </c>
       <c r="BT24" s="1">
-        <v>4.199674</v>
+        <v>4.1996739999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1601.930000</v>
+        <v>1601.93</v>
       </c>
       <c r="BV24" s="1">
-        <v>-830.781000</v>
+        <v>-830.78099999999995</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>15130.158638</v>
+        <v>15130.158638000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>4.202822</v>
+        <v>4.2028220000000003</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1753.410000</v>
+        <v>1753.41</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1105.570000</v>
+        <v>-1105.57</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>15143.203420</v>
+        <v>15143.20342</v>
       </c>
       <c r="CD24" s="1">
-        <v>4.206445</v>
+        <v>4.2064450000000004</v>
       </c>
       <c r="CE24" s="1">
-        <v>2169.950000</v>
+        <v>2169.9499999999998</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1774.980000</v>
+        <v>-1774.98</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>14968.767922</v>
+        <v>14968.767922000001</v>
       </c>
       <c r="B25" s="1">
         <v>4.157991</v>
       </c>
       <c r="C25" s="1">
-        <v>1142.470000</v>
+        <v>1142.47</v>
       </c>
       <c r="D25" s="1">
-        <v>-259.862000</v>
+        <v>-259.86200000000002</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
         <v>14979.228052</v>
       </c>
       <c r="G25" s="1">
-        <v>4.160897</v>
+        <v>4.1608970000000003</v>
       </c>
       <c r="H25" s="1">
-        <v>1163.800000</v>
+        <v>1163.8</v>
       </c>
       <c r="I25" s="1">
-        <v>-217.888000</v>
+        <v>-217.88800000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>14989.736758</v>
+        <v>14989.736757999999</v>
       </c>
       <c r="L25" s="1">
-        <v>4.163816</v>
+        <v>4.1638159999999997</v>
       </c>
       <c r="M25" s="1">
-        <v>1190.920000</v>
+        <v>1190.92</v>
       </c>
       <c r="N25" s="1">
-        <v>-150.604000</v>
+        <v>-150.60400000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>15000.678505</v>
@@ -6437,467 +6853,468 @@
         <v>4.166855</v>
       </c>
       <c r="R25" s="1">
-        <v>1198.500000</v>
+        <v>1198.5</v>
       </c>
       <c r="S25" s="1">
-        <v>-128.264000</v>
+        <v>-128.26400000000001</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>15011.142602</v>
       </c>
       <c r="V25" s="1">
-        <v>4.169762</v>
+        <v>4.1697620000000004</v>
       </c>
       <c r="W25" s="1">
-        <v>1205.490000</v>
+        <v>1205.49</v>
       </c>
       <c r="X25" s="1">
-        <v>-107.268000</v>
+        <v>-107.268</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>15021.680140</v>
+        <v>15021.68014</v>
       </c>
       <c r="AA25" s="1">
-        <v>4.172689</v>
+        <v>4.1726890000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1212.540000</v>
+        <v>1212.54</v>
       </c>
       <c r="AC25" s="1">
-        <v>-90.235200</v>
+        <v>-90.235200000000006</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>15031.739967</v>
       </c>
       <c r="AF25" s="1">
-        <v>4.175483</v>
+        <v>4.1754829999999998</v>
       </c>
       <c r="AG25" s="1">
-        <v>1217.050000</v>
+        <v>1217.05</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.613100</v>
+        <v>-85.613100000000003</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>15042.585984</v>
+        <v>15042.585983999999</v>
       </c>
       <c r="AK25" s="1">
         <v>4.178496</v>
       </c>
       <c r="AL25" s="1">
-        <v>1223.950000</v>
+        <v>1223.95</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.919400</v>
+        <v>-88.919399999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>15053.551076</v>
       </c>
       <c r="AP25" s="1">
-        <v>4.181542</v>
+        <v>4.1815420000000003</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1231.780000</v>
+        <v>1231.78</v>
       </c>
       <c r="AR25" s="1">
-        <v>-100.845000</v>
+        <v>-100.845</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
         <v>15065.175125</v>
       </c>
       <c r="AU25" s="1">
-        <v>4.184771</v>
+        <v>4.1847709999999996</v>
       </c>
       <c r="AV25" s="1">
-        <v>1241.620000</v>
+        <v>1241.6199999999999</v>
       </c>
       <c r="AW25" s="1">
-        <v>-120.171000</v>
+        <v>-120.17100000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>15076.080820</v>
+        <v>15076.080819999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>4.187800</v>
+        <v>4.1878000000000002</v>
       </c>
       <c r="BA25" s="1">
-        <v>1249.980000</v>
+        <v>1249.98</v>
       </c>
       <c r="BB25" s="1">
-        <v>-137.608000</v>
+        <v>-137.608</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>15086.798870</v>
+        <v>15086.798870000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>4.190777</v>
+        <v>4.1907769999999998</v>
       </c>
       <c r="BF25" s="1">
-        <v>1289.680000</v>
+        <v>1289.68</v>
       </c>
       <c r="BG25" s="1">
-        <v>-219.352000</v>
+        <v>-219.352</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
         <v>15097.836839</v>
       </c>
       <c r="BJ25" s="1">
-        <v>4.193844</v>
+        <v>4.1938440000000003</v>
       </c>
       <c r="BK25" s="1">
-        <v>1358.590000</v>
+        <v>1358.59</v>
       </c>
       <c r="BL25" s="1">
-        <v>-355.753000</v>
+        <v>-355.75299999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>15108.554708</v>
       </c>
       <c r="BO25" s="1">
-        <v>4.196821</v>
+        <v>4.1968209999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1471.660000</v>
+        <v>1471.66</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-578.452000</v>
+        <v>-578.452</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>15119.251148</v>
+        <v>15119.251147999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>4.199792</v>
+        <v>4.1997920000000004</v>
       </c>
       <c r="BU25" s="1">
-        <v>1601.780000</v>
+        <v>1601.78</v>
       </c>
       <c r="BV25" s="1">
-        <v>-830.784000</v>
+        <v>-830.78399999999999</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>15130.576764</v>
+        <v>15130.576763999999</v>
       </c>
       <c r="BY25" s="1">
-        <v>4.202938</v>
+        <v>4.2029379999999996</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1753.330000</v>
+        <v>1753.33</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1105.690000</v>
+        <v>-1105.69</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>15143.741083</v>
+        <v>15143.741083000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>4.206595</v>
+        <v>4.2065950000000001</v>
       </c>
       <c r="CE25" s="1">
-        <v>2172.560000</v>
+        <v>2172.56</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1773.600000</v>
+        <v>-1773.6</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>14969.108643</v>
       </c>
       <c r="B26" s="1">
-        <v>4.158086</v>
+        <v>4.1580859999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>1142.720000</v>
+        <v>1142.72</v>
       </c>
       <c r="D26" s="1">
-        <v>-259.559000</v>
+        <v>-259.55900000000003</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>14979.915476</v>
       </c>
       <c r="G26" s="1">
-        <v>4.161088</v>
+        <v>4.1610880000000003</v>
       </c>
       <c r="H26" s="1">
-        <v>1163.960000</v>
+        <v>1163.96</v>
       </c>
       <c r="I26" s="1">
-        <v>-217.321000</v>
+        <v>-217.321</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>14990.476830</v>
+        <v>14990.47683</v>
       </c>
       <c r="L26" s="1">
         <v>4.164021</v>
       </c>
       <c r="M26" s="1">
-        <v>1190.770000</v>
+        <v>1190.77</v>
       </c>
       <c r="N26" s="1">
-        <v>-150.268000</v>
+        <v>-150.268</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>15001.029175</v>
       </c>
       <c r="Q26" s="1">
-        <v>4.166953</v>
+        <v>4.1669530000000004</v>
       </c>
       <c r="R26" s="1">
-        <v>1198.490000</v>
+        <v>1198.49</v>
       </c>
       <c r="S26" s="1">
-        <v>-128.328000</v>
+        <v>-128.328</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>15011.487321</v>
+        <v>15011.487321000001</v>
       </c>
       <c r="V26" s="1">
-        <v>4.169858</v>
+        <v>4.1698579999999996</v>
       </c>
       <c r="W26" s="1">
-        <v>1205.550000</v>
+        <v>1205.55</v>
       </c>
       <c r="X26" s="1">
-        <v>-107.282000</v>
+        <v>-107.282</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>15022.028302</v>
+        <v>15022.028302000001</v>
       </c>
       <c r="AA26" s="1">
-        <v>4.172786</v>
+        <v>4.1727860000000003</v>
       </c>
       <c r="AB26" s="1">
-        <v>1212.620000</v>
+        <v>1212.6199999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-90.140700</v>
+        <v>-90.140699999999995</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>15032.394832</v>
       </c>
       <c r="AF26" s="1">
-        <v>4.175665</v>
+        <v>4.1756650000000004</v>
       </c>
       <c r="AG26" s="1">
-        <v>1217.040000</v>
+        <v>1217.04</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.589700</v>
+        <v>-85.589699999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>15042.968934</v>
       </c>
       <c r="AK26" s="1">
-        <v>4.178602</v>
+        <v>4.1786019999999997</v>
       </c>
       <c r="AL26" s="1">
-        <v>1223.960000</v>
+        <v>1223.96</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.964300</v>
+        <v>-88.964299999999994</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>15053.986066</v>
+        <v>15053.986065999999</v>
       </c>
       <c r="AP26" s="1">
-        <v>4.181663</v>
+        <v>4.1816630000000004</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1231.760000</v>
+        <v>1231.76</v>
       </c>
       <c r="AR26" s="1">
-        <v>-100.878000</v>
+        <v>-100.878</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>15065.539842</v>
       </c>
       <c r="AU26" s="1">
-        <v>4.184872</v>
+        <v>4.1848720000000004</v>
       </c>
       <c r="AV26" s="1">
-        <v>1241.630000</v>
+        <v>1241.6300000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-120.184000</v>
+        <v>-120.184</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
         <v>15076.440916</v>
       </c>
       <c r="AZ26" s="1">
-        <v>4.187900</v>
+        <v>4.1879</v>
       </c>
       <c r="BA26" s="1">
-        <v>1249.990000</v>
+        <v>1249.99</v>
       </c>
       <c r="BB26" s="1">
-        <v>-137.613000</v>
+        <v>-137.613</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
         <v>15087.161446</v>
       </c>
       <c r="BE26" s="1">
-        <v>4.190878</v>
+        <v>4.1908779999999997</v>
       </c>
       <c r="BF26" s="1">
-        <v>1289.670000</v>
+        <v>1289.67</v>
       </c>
       <c r="BG26" s="1">
-        <v>-219.347000</v>
+        <v>-219.34700000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>15098.258439</v>
+        <v>15098.258438999999</v>
       </c>
       <c r="BJ26" s="1">
-        <v>4.193961</v>
+        <v>4.1939609999999998</v>
       </c>
       <c r="BK26" s="1">
-        <v>1358.570000</v>
+        <v>1358.57</v>
       </c>
       <c r="BL26" s="1">
-        <v>-355.771000</v>
+        <v>-355.77100000000002</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
         <v>15108.948218</v>
       </c>
       <c r="BO26" s="1">
-        <v>4.196930</v>
+        <v>4.19693</v>
       </c>
       <c r="BP26" s="1">
-        <v>1471.650000</v>
+        <v>1471.65</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-578.446000</v>
+        <v>-578.44600000000003</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>15119.653674</v>
+        <v>15119.653673999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>4.199904</v>
+        <v>4.1999040000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1601.850000</v>
+        <v>1601.85</v>
       </c>
       <c r="BV26" s="1">
-        <v>-830.756000</v>
+        <v>-830.75599999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>15131.001842</v>
       </c>
       <c r="BY26" s="1">
-        <v>4.203056</v>
+        <v>4.2030560000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1753.450000</v>
+        <v>1753.45</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1105.680000</v>
+        <v>-1105.68</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>15144.281754</v>
       </c>
       <c r="CD26" s="1">
-        <v>4.206745</v>
+        <v>4.2067449999999997</v>
       </c>
       <c r="CE26" s="1">
-        <v>2170.260000</v>
+        <v>2170.2600000000002</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1773.890000</v>
+        <v>-1773.89</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>